--- a/Data/colonies.xlsx
+++ b/Data/colonies.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DB129"/>
+  <dimension ref="A1:DE129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -696,49 +696,49 @@
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
+          <t>efw_colonizer</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>timec_total</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>indep_from</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>hiel_indep</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>first_hiel</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>first_hiel_year</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>first_hiel_colonizer</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>main_indep</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
           <t>avg_efw</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>timec_total</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>indep_from</t>
-        </is>
-      </c>
-      <c r="BD1" s="1" t="inlineStr">
-        <is>
-          <t>hiel_indep</t>
-        </is>
-      </c>
-      <c r="BE1" s="1" t="inlineStr">
-        <is>
-          <t>first_hiel</t>
-        </is>
-      </c>
-      <c r="BF1" s="1" t="inlineStr">
-        <is>
-          <t>first_hiel_year</t>
-        </is>
-      </c>
-      <c r="BG1" s="1" t="inlineStr">
-        <is>
-          <t>first_hiel_colonizer</t>
-        </is>
-      </c>
-      <c r="BH1" s="1" t="inlineStr">
-        <is>
-          <t>main_indep</t>
-        </is>
-      </c>
-      <c r="BI1" s="1" t="inlineStr">
-        <is>
-          <t>efw</t>
-        </is>
-      </c>
       <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>Area 1</t>
@@ -916,50 +916,65 @@
       </c>
       <c r="CS1" s="1" t="inlineStr">
         <is>
+          <t>Entity</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>year</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>pop</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
           <t>ruggedness</t>
         </is>
       </c>
-      <c r="CT1" s="1" t="inlineStr">
+      <c r="CW1" s="1" t="inlineStr">
         <is>
           <t>legor_uk</t>
         </is>
       </c>
-      <c r="CU1" s="1" t="inlineStr">
+      <c r="CX1" s="1" t="inlineStr">
         <is>
           <t>legor_fr</t>
         </is>
       </c>
-      <c r="CV1" s="1" t="inlineStr">
+      <c r="CY1" s="1" t="inlineStr">
         <is>
           <t>legor_so</t>
         </is>
       </c>
-      <c r="CW1" s="1" t="inlineStr">
+      <c r="CZ1" s="1" t="inlineStr">
         <is>
           <t>legor_ge</t>
         </is>
       </c>
-      <c r="CX1" s="1" t="inlineStr">
+      <c r="DA1" s="1" t="inlineStr">
         <is>
           <t>legor_sc</t>
         </is>
       </c>
-      <c r="CY1" s="1" t="inlineStr">
+      <c r="DB1" s="1" t="inlineStr">
         <is>
           <t>avg_ethnofrac</t>
         </is>
       </c>
-      <c r="CZ1" s="1" t="inlineStr">
+      <c r="DC1" s="1" t="inlineStr">
         <is>
           <t>euro_share</t>
         </is>
       </c>
-      <c r="DA1" s="1" t="inlineStr">
+      <c r="DD1" s="1" t="inlineStr">
         <is>
           <t>lat</t>
         </is>
       </c>
-      <c r="DB1" s="1" t="inlineStr">
+      <c r="DE1" s="1" t="inlineStr">
         <is>
           <t>lon</t>
         </is>
@@ -1198,8 +1213,12 @@
       <c r="CH2" t="n">
         <v>1.790882103722234</v>
       </c>
-      <c r="CI2" t="inlineStr"/>
-      <c r="CJ2" t="inlineStr"/>
+      <c r="CI2" t="n">
+        <v>1965</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>3.620828690040063</v>
+      </c>
       <c r="CK2" t="n">
         <v>1975</v>
       </c>
@@ -1224,34 +1243,45 @@
       <c r="CR2" t="n">
         <v>4.806962129862996</v>
       </c>
-      <c r="CS2" t="n">
+      <c r="CS2" t="inlineStr">
+        <is>
+          <t>Algeria</t>
+        </is>
+      </c>
+      <c r="CT2" t="n">
+        <v>1962</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>11800768</v>
+      </c>
+      <c r="CV2" t="n">
         <v>51</v>
       </c>
-      <c r="CT2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV2" t="n">
-        <v>0</v>
-      </c>
       <c r="CW2" t="n">
         <v>0</v>
       </c>
       <c r="CX2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB2" t="n">
         <v>0.293724</v>
       </c>
-      <c r="CZ2" t="n">
+      <c r="DC2" t="n">
         <v>0.105</v>
       </c>
-      <c r="DA2" t="n">
+      <c r="DD2" t="n">
         <v>28</v>
       </c>
-      <c r="DB2" t="n">
+      <c r="DE2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1506,34 +1536,45 @@
       <c r="CR3" t="n">
         <v>5.071418918918919</v>
       </c>
-      <c r="CS3" t="n">
+      <c r="CS3" t="inlineStr">
+        <is>
+          <t>Angola</t>
+        </is>
+      </c>
+      <c r="CT3" t="n">
+        <v>1974</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>6613370</v>
+      </c>
+      <c r="CV3" t="n">
         <v>85.8</v>
       </c>
-      <c r="CT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV3" t="n">
-        <v>0</v>
-      </c>
       <c r="CW3" t="n">
         <v>0</v>
       </c>
       <c r="CX3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB3" t="n">
         <v>0.772755</v>
       </c>
-      <c r="CZ3" t="n">
+      <c r="DC3" t="n">
         <v>0.002</v>
       </c>
-      <c r="DA3" t="n">
+      <c r="DD3" t="n">
         <v>-12.5</v>
       </c>
-      <c r="DB3" t="n">
+      <c r="DE3" t="n">
         <v>18.5</v>
       </c>
     </row>
@@ -1720,20 +1761,22 @@
       <c r="CP4" t="inlineStr"/>
       <c r="CQ4" t="inlineStr"/>
       <c r="CR4" t="inlineStr"/>
-      <c r="CS4" t="n">
+      <c r="CS4" t="inlineStr">
+        <is>
+          <t>Antigua and Barbuda</t>
+        </is>
+      </c>
+      <c r="CT4" t="n">
+        <v>1974</v>
+      </c>
+      <c r="CU4" t="n">
+        <v>64074</v>
+      </c>
+      <c r="CV4" t="n">
         <v>0.6</v>
       </c>
-      <c r="CT4" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV4" t="n">
-        <v>0</v>
-      </c>
       <c r="CW4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX4" t="n">
         <v>0</v>
@@ -1742,12 +1785,21 @@
         <v>0</v>
       </c>
       <c r="CZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC4" t="n">
         <v>0.195</v>
       </c>
-      <c r="DA4" t="n">
+      <c r="DD4" t="n">
         <v>17.05</v>
       </c>
-      <c r="DB4" t="n">
+      <c r="DE4" t="n">
         <v>-61.8</v>
       </c>
     </row>
@@ -1974,34 +2026,45 @@
       <c r="CP5" t="inlineStr"/>
       <c r="CQ5" t="inlineStr"/>
       <c r="CR5" t="inlineStr"/>
-      <c r="CS5" t="n">
+      <c r="CS5" t="inlineStr">
+        <is>
+          <t>Argentina</t>
+        </is>
+      </c>
+      <c r="CT5" t="n">
+        <v>1818</v>
+      </c>
+      <c r="CU5" t="n">
+        <v>505900</v>
+      </c>
+      <c r="CV5" t="n">
         <v>77.5</v>
       </c>
-      <c r="CT5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU5" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV5" t="n">
-        <v>0</v>
-      </c>
       <c r="CW5" t="n">
         <v>0</v>
       </c>
       <c r="CX5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB5" t="n">
         <v>0.1769318</v>
       </c>
-      <c r="CZ5" t="n">
+      <c r="DC5" t="n">
         <v>0.147</v>
       </c>
-      <c r="DA5" t="n">
+      <c r="DD5" t="n">
         <v>-34</v>
       </c>
-      <c r="DB5" t="n">
+      <c r="DE5" t="n">
         <v>-64</v>
       </c>
     </row>
@@ -2252,34 +2315,45 @@
       <c r="CR6" t="n">
         <v>6.473794051554846</v>
       </c>
-      <c r="CS6" t="n">
+      <c r="CS6" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="CT6" t="n">
+        <v>1904</v>
+      </c>
+      <c r="CU6" t="n">
+        <v>3935097</v>
+      </c>
+      <c r="CV6" t="n">
         <v>14.3</v>
       </c>
-      <c r="CT6" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV6" t="n">
-        <v>0</v>
-      </c>
       <c r="CW6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX6" t="n">
         <v>0</v>
       </c>
       <c r="CY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB6" t="n">
         <v>0.1127971</v>
       </c>
-      <c r="CZ6" t="n">
+      <c r="DC6" t="n">
         <v>0.62</v>
       </c>
-      <c r="DA6" t="n">
+      <c r="DD6" t="n">
         <v>-27</v>
       </c>
-      <c r="DB6" t="n">
+      <c r="DE6" t="n">
         <v>133</v>
       </c>
     </row>
@@ -2516,8 +2590,12 @@
       <c r="CH7" t="n">
         <v>1.545797564682733</v>
       </c>
-      <c r="CI7" t="inlineStr"/>
-      <c r="CJ7" t="inlineStr"/>
+      <c r="CI7" t="n">
+        <v>1975</v>
+      </c>
+      <c r="CJ7" t="n">
+        <v>6.85628691546833</v>
+      </c>
       <c r="CK7" t="n">
         <v>1985</v>
       </c>
@@ -2542,20 +2620,22 @@
       <c r="CR7" t="n">
         <v>7.192762333547144</v>
       </c>
-      <c r="CS7" t="n">
+      <c r="CS7" t="inlineStr">
+        <is>
+          <t>Bahamas</t>
+        </is>
+      </c>
+      <c r="CT7" t="n">
+        <v>1973</v>
+      </c>
+      <c r="CU7" t="n">
+        <v>200799</v>
+      </c>
+      <c r="CV7" t="n">
         <v>5.5</v>
       </c>
-      <c r="CT7" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV7" t="n">
-        <v>0</v>
-      </c>
       <c r="CW7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX7" t="n">
         <v>0</v>
@@ -2564,12 +2644,21 @@
         <v>0</v>
       </c>
       <c r="CZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC7" t="n">
         <v>0.626</v>
       </c>
-      <c r="DA7" t="n">
+      <c r="DD7" t="n">
         <v>24.25</v>
       </c>
-      <c r="DB7" t="n">
+      <c r="DE7" t="n">
         <v>-76</v>
       </c>
     </row>
@@ -2806,8 +2895,12 @@
       <c r="CH8" t="n">
         <v>1.718991901007827</v>
       </c>
-      <c r="CI8" t="inlineStr"/>
-      <c r="CJ8" t="inlineStr"/>
+      <c r="CI8" t="n">
+        <v>1975</v>
+      </c>
+      <c r="CJ8" t="n">
+        <v>6.556555046352825</v>
+      </c>
       <c r="CK8" t="n">
         <v>1985</v>
       </c>
@@ -2832,30 +2925,41 @@
       <c r="CR8" t="n">
         <v>7.280254010695189</v>
       </c>
-      <c r="CS8" t="n">
+      <c r="CS8" t="inlineStr">
+        <is>
+          <t>Bahrain</t>
+        </is>
+      </c>
+      <c r="CT8" t="n">
+        <v>1971</v>
+      </c>
+      <c r="CU8" t="n">
+        <v>230745</v>
+      </c>
+      <c r="CV8" t="n">
         <v>23.1</v>
       </c>
-      <c r="CT8" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV8" t="n">
-        <v>0</v>
-      </c>
       <c r="CW8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX8" t="n">
         <v>0</v>
       </c>
-      <c r="CY8" t="inlineStr"/>
-      <c r="CZ8" t="inlineStr"/>
+      <c r="CY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ8" t="n">
+        <v>0</v>
+      </c>
       <c r="DA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB8" t="inlineStr"/>
+      <c r="DC8" t="inlineStr"/>
+      <c r="DD8" t="n">
         <v>26</v>
       </c>
-      <c r="DB8" t="n">
+      <c r="DE8" t="n">
         <v>50.55</v>
       </c>
     </row>
@@ -3114,20 +3218,22 @@
       <c r="CR9" t="n">
         <v>4.377050454066681</v>
       </c>
-      <c r="CS9" t="n">
+      <c r="CS9" t="inlineStr">
+        <is>
+          <t>Bangladesh</t>
+        </is>
+      </c>
+      <c r="CT9" t="n">
+        <v>1947</v>
+      </c>
+      <c r="CU9" t="n">
+        <v>38515003</v>
+      </c>
+      <c r="CV9" t="n">
         <v>18.6</v>
       </c>
-      <c r="CT9" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV9" t="n">
-        <v>0</v>
-      </c>
       <c r="CW9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX9" t="n">
         <v>0</v>
@@ -3135,11 +3241,20 @@
       <c r="CY9" t="n">
         <v>0</v>
       </c>
-      <c r="CZ9" t="inlineStr"/>
+      <c r="CZ9" t="n">
+        <v>0</v>
+      </c>
       <c r="DA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC9" t="inlineStr"/>
+      <c r="DD9" t="n">
         <v>24</v>
       </c>
-      <c r="DB9" t="n">
+      <c r="DE9" t="n">
         <v>90</v>
       </c>
     </row>
@@ -3402,34 +3517,45 @@
       <c r="CR10" t="n">
         <v>6.560658436213991</v>
       </c>
-      <c r="CS10" t="n">
+      <c r="CS10" t="inlineStr">
+        <is>
+          <t>Barbados</t>
+        </is>
+      </c>
+      <c r="CT10" t="n">
+        <v>1966</v>
+      </c>
+      <c r="CU10" t="n">
+        <v>245010</v>
+      </c>
+      <c r="CV10" t="n">
         <v>96.3</v>
       </c>
-      <c r="CT10" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV10" t="n">
-        <v>0</v>
-      </c>
       <c r="CW10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX10" t="n">
         <v>0</v>
       </c>
       <c r="CY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB10" t="n">
         <v>0.0733333</v>
       </c>
-      <c r="CZ10" t="n">
+      <c r="DC10" t="n">
         <v>0.28</v>
       </c>
-      <c r="DA10" t="n">
+      <c r="DD10" t="n">
         <v>13.1667</v>
       </c>
-      <c r="DB10" t="n">
+      <c r="DE10" t="n">
         <v>-59.5333</v>
       </c>
     </row>
@@ -3674,8 +3800,12 @@
       <c r="CH11" t="n">
         <v>0.9551917007850058</v>
       </c>
-      <c r="CI11" t="inlineStr"/>
-      <c r="CJ11" t="inlineStr"/>
+      <c r="CI11" t="n">
+        <v>1980</v>
+      </c>
+      <c r="CJ11" t="n">
+        <v>6.460922914075478</v>
+      </c>
       <c r="CK11" t="n">
         <v>1990</v>
       </c>
@@ -3696,34 +3826,45 @@
       </c>
       <c r="CQ11" t="inlineStr"/>
       <c r="CR11" t="inlineStr"/>
-      <c r="CS11" t="n">
+      <c r="CS11" t="inlineStr">
+        <is>
+          <t>Belize</t>
+        </is>
+      </c>
+      <c r="CT11" t="n">
+        <v>1980</v>
+      </c>
+      <c r="CU11" t="n">
+        <v>145072</v>
+      </c>
+      <c r="CV11" t="n">
         <v>60.7</v>
       </c>
-      <c r="CT11" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV11" t="n">
-        <v>0</v>
-      </c>
       <c r="CW11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX11" t="n">
         <v>0</v>
       </c>
       <c r="CY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB11" t="n">
         <v>0.4090909</v>
       </c>
-      <c r="CZ11" t="n">
+      <c r="DC11" t="n">
         <v>0.075</v>
       </c>
-      <c r="DA11" t="n">
+      <c r="DD11" t="n">
         <v>17.25</v>
       </c>
-      <c r="DB11" t="n">
+      <c r="DE11" t="n">
         <v>-88.75</v>
       </c>
     </row>
@@ -3960,8 +4101,12 @@
       <c r="CH12" t="n">
         <v>1.32786115639934</v>
       </c>
-      <c r="CI12" t="inlineStr"/>
-      <c r="CJ12" t="inlineStr"/>
+      <c r="CI12" t="n">
+        <v>1960</v>
+      </c>
+      <c r="CJ12" t="n">
+        <v>3.812184382488018</v>
+      </c>
       <c r="CK12" t="n">
         <v>1970</v>
       </c>
@@ -3986,32 +4131,43 @@
       <c r="CR12" t="n">
         <v>5.900032818623324</v>
       </c>
-      <c r="CS12" t="n">
+      <c r="CS12" t="inlineStr">
+        <is>
+          <t>Benin</t>
+        </is>
+      </c>
+      <c r="CT12" t="n">
+        <v>1960</v>
+      </c>
+      <c r="CU12" t="n">
+        <v>2517290</v>
+      </c>
+      <c r="CV12" t="n">
         <v>14.1</v>
       </c>
-      <c r="CT12" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU12" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV12" t="n">
-        <v>0</v>
-      </c>
       <c r="CW12" t="n">
         <v>0</v>
       </c>
       <c r="CX12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB12" t="n">
         <v>0.6831192</v>
       </c>
-      <c r="CZ12" t="inlineStr"/>
-      <c r="DA12" t="n">
+      <c r="DC12" t="inlineStr"/>
+      <c r="DD12" t="n">
         <v>9.5</v>
       </c>
-      <c r="DB12" t="n">
+      <c r="DE12" t="n">
         <v>2.25</v>
       </c>
     </row>
@@ -4258,32 +4414,43 @@
       <c r="CP13" t="inlineStr"/>
       <c r="CQ13" t="inlineStr"/>
       <c r="CR13" t="inlineStr"/>
-      <c r="CS13" t="n">
+      <c r="CS13" t="inlineStr">
+        <is>
+          <t>Bhutan</t>
+        </is>
+      </c>
+      <c r="CT13" t="n">
+        <v>1949</v>
+      </c>
+      <c r="CU13" t="n">
+        <v>179148</v>
+      </c>
+      <c r="CV13" t="n">
         <v>674</v>
       </c>
-      <c r="CT13" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU13" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV13" t="n">
-        <v>0</v>
-      </c>
       <c r="CW13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX13" t="n">
         <v>0</v>
       </c>
       <c r="CY13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB13" t="n">
         <v>0.4375</v>
       </c>
-      <c r="CZ13" t="inlineStr"/>
-      <c r="DA13" t="n">
+      <c r="DC13" t="inlineStr"/>
+      <c r="DD13" t="n">
         <v>27.5</v>
       </c>
-      <c r="DB13" t="n">
+      <c r="DE13" t="n">
         <v>90.5</v>
       </c>
     </row>
@@ -4510,34 +4677,45 @@
       <c r="CP14" t="inlineStr"/>
       <c r="CQ14" t="inlineStr"/>
       <c r="CR14" t="inlineStr"/>
-      <c r="CS14" t="n">
+      <c r="CS14" t="inlineStr">
+        <is>
+          <t>Bolivia</t>
+        </is>
+      </c>
+      <c r="CT14" t="n">
+        <v>1825</v>
+      </c>
+      <c r="CU14" t="n">
+        <v>1141604</v>
+      </c>
+      <c r="CV14" t="n">
         <v>85.3</v>
       </c>
-      <c r="CT14" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU14" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV14" t="n">
-        <v>0</v>
-      </c>
       <c r="CW14" t="n">
         <v>0</v>
       </c>
       <c r="CX14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB14" t="n">
         <v>0.5994118000000001</v>
       </c>
-      <c r="CZ14" t="n">
+      <c r="DC14" t="n">
         <v>0.059</v>
       </c>
-      <c r="DA14" t="n">
+      <c r="DD14" t="n">
         <v>-17</v>
       </c>
-      <c r="DB14" t="n">
+      <c r="DE14" t="n">
         <v>-65</v>
       </c>
     </row>
@@ -4800,34 +4978,45 @@
       <c r="CR15" t="n">
         <v>7.100339673913042</v>
       </c>
-      <c r="CS15" t="n">
+      <c r="CS15" t="inlineStr">
+        <is>
+          <t>Botswana</t>
+        </is>
+      </c>
+      <c r="CT15" t="n">
+        <v>1966</v>
+      </c>
+      <c r="CU15" t="n">
+        <v>577876</v>
+      </c>
+      <c r="CV15" t="n">
         <v>18.1</v>
       </c>
-      <c r="CT15" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU15" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV15" t="n">
-        <v>0</v>
-      </c>
       <c r="CW15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX15" t="n">
         <v>0</v>
       </c>
       <c r="CY15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB15" t="n">
         <v>0.3775</v>
       </c>
-      <c r="CZ15" t="n">
+      <c r="DC15" t="n">
         <v>0.008</v>
       </c>
-      <c r="DA15" t="n">
+      <c r="DD15" t="n">
         <v>-22</v>
       </c>
-      <c r="DB15" t="n">
+      <c r="DE15" t="n">
         <v>24</v>
       </c>
     </row>
@@ -5054,34 +5243,45 @@
       <c r="CP16" t="inlineStr"/>
       <c r="CQ16" t="inlineStr"/>
       <c r="CR16" t="inlineStr"/>
-      <c r="CS16" t="n">
+      <c r="CS16" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="CT16" t="n">
+        <v>1822</v>
+      </c>
+      <c r="CU16" t="n">
+        <v>4652592</v>
+      </c>
+      <c r="CV16" t="n">
         <v>24</v>
       </c>
-      <c r="CT16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU16" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV16" t="n">
-        <v>0</v>
-      </c>
       <c r="CW16" t="n">
         <v>0</v>
       </c>
       <c r="CX16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB16" t="n">
         <v>0.0557809</v>
       </c>
-      <c r="CZ16" t="n">
+      <c r="DC16" t="n">
         <v>0.074</v>
       </c>
-      <c r="DA16" t="n">
+      <c r="DD16" t="n">
         <v>-10</v>
       </c>
-      <c r="DB16" t="n">
+      <c r="DE16" t="n">
         <v>-55</v>
       </c>
     </row>
@@ -5336,32 +5536,43 @@
       </c>
       <c r="CQ17" t="inlineStr"/>
       <c r="CR17" t="inlineStr"/>
-      <c r="CS17" t="n">
+      <c r="CS17" t="inlineStr">
+        <is>
+          <t>Brunei</t>
+        </is>
+      </c>
+      <c r="CT17" t="n">
+        <v>1984</v>
+      </c>
+      <c r="CU17" t="n">
+        <v>211673</v>
+      </c>
+      <c r="CV17" t="n">
         <v>52</v>
       </c>
-      <c r="CT17" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV17" t="n">
-        <v>0</v>
-      </c>
       <c r="CW17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX17" t="n">
         <v>0</v>
       </c>
       <c r="CY17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB17" t="n">
         <v>0.5</v>
       </c>
-      <c r="CZ17" t="inlineStr"/>
-      <c r="DA17" t="n">
+      <c r="DC17" t="inlineStr"/>
+      <c r="DD17" t="n">
         <v>4.5</v>
       </c>
-      <c r="DB17" t="n">
+      <c r="DE17" t="n">
         <v>114.6667</v>
       </c>
     </row>
@@ -5598,8 +5809,12 @@
       <c r="CH18" t="n">
         <v>1.265451500089681</v>
       </c>
-      <c r="CI18" t="inlineStr"/>
-      <c r="CJ18" t="inlineStr"/>
+      <c r="CI18" t="n">
+        <v>1960</v>
+      </c>
+      <c r="CJ18" t="n">
+        <v>5.327570739242722</v>
+      </c>
       <c r="CK18" t="inlineStr"/>
       <c r="CL18" t="inlineStr"/>
       <c r="CM18" t="inlineStr"/>
@@ -5612,32 +5827,43 @@
       <c r="CR18" t="n">
         <v>5.627285612282417</v>
       </c>
-      <c r="CS18" t="n">
+      <c r="CS18" t="inlineStr">
+        <is>
+          <t>Burkina Faso</t>
+        </is>
+      </c>
+      <c r="CT18" t="n">
+        <v>1960</v>
+      </c>
+      <c r="CU18" t="n">
+        <v>4778627</v>
+      </c>
+      <c r="CV18" t="n">
         <v>23.6</v>
       </c>
-      <c r="CT18" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU18" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV18" t="n">
-        <v>0</v>
-      </c>
       <c r="CW18" t="n">
         <v>0</v>
       </c>
       <c r="CX18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB18" t="n">
         <v>0.5467181</v>
       </c>
-      <c r="CZ18" t="inlineStr"/>
-      <c r="DA18" t="n">
+      <c r="DC18" t="inlineStr"/>
+      <c r="DD18" t="n">
         <v>13</v>
       </c>
-      <c r="DB18" t="n">
+      <c r="DE18" t="n">
         <v>-2</v>
       </c>
     </row>
@@ -5882,8 +6108,12 @@
       <c r="CH19" t="n">
         <v>2.34040578031678</v>
       </c>
-      <c r="CI19" t="inlineStr"/>
-      <c r="CJ19" t="inlineStr"/>
+      <c r="CI19" t="n">
+        <v>1965</v>
+      </c>
+      <c r="CJ19" t="n">
+        <v>4.485272226618234</v>
+      </c>
       <c r="CK19" t="n">
         <v>1975</v>
       </c>
@@ -5908,34 +6138,45 @@
       <c r="CR19" t="n">
         <v>5.194316725332618</v>
       </c>
-      <c r="CS19" t="n">
+      <c r="CS19" t="inlineStr">
+        <is>
+          <t>Burundi</t>
+        </is>
+      </c>
+      <c r="CT19" t="n">
+        <v>1962</v>
+      </c>
+      <c r="CU19" t="n">
+        <v>2907944</v>
+      </c>
+      <c r="CV19" t="n">
         <v>178</v>
       </c>
-      <c r="CT19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU19" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV19" t="n">
-        <v>0</v>
-      </c>
       <c r="CW19" t="n">
         <v>0</v>
       </c>
       <c r="CX19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB19" t="n">
         <v>0.0133333</v>
       </c>
-      <c r="CZ19" t="n">
+      <c r="DC19" t="n">
         <v>0.002</v>
       </c>
-      <c r="DA19" t="n">
+      <c r="DD19" t="n">
         <v>-3.5</v>
       </c>
-      <c r="DB19" t="n">
+      <c r="DE19" t="n">
         <v>30</v>
       </c>
     </row>
@@ -6182,18 +6423,20 @@
       <c r="CP20" t="inlineStr"/>
       <c r="CQ20" t="inlineStr"/>
       <c r="CR20" t="inlineStr"/>
-      <c r="CS20" t="n">
+      <c r="CS20" t="inlineStr">
+        <is>
+          <t>Cambodia</t>
+        </is>
+      </c>
+      <c r="CT20" t="n">
+        <v>1952</v>
+      </c>
+      <c r="CU20" t="n">
+        <v>4577965</v>
+      </c>
+      <c r="CV20" t="n">
         <v>54</v>
       </c>
-      <c r="CT20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU20" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV20" t="n">
-        <v>1</v>
-      </c>
       <c r="CW20" t="n">
         <v>0</v>
       </c>
@@ -6201,13 +6444,22 @@
         <v>0</v>
       </c>
       <c r="CY20" t="n">
+        <v>1</v>
+      </c>
+      <c r="CZ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB20" t="n">
         <v>0.1335464</v>
       </c>
-      <c r="CZ20" t="inlineStr"/>
-      <c r="DA20" t="n">
+      <c r="DC20" t="inlineStr"/>
+      <c r="DD20" t="n">
         <v>13</v>
       </c>
-      <c r="DB20" t="n">
+      <c r="DE20" t="n">
         <v>105</v>
       </c>
     </row>
@@ -6458,8 +6710,12 @@
       <c r="CH21" t="n">
         <v>1.895023057609925</v>
       </c>
-      <c r="CI21" t="inlineStr"/>
-      <c r="CJ21" t="inlineStr"/>
+      <c r="CI21" t="n">
+        <v>1965</v>
+      </c>
+      <c r="CJ21" t="n">
+        <v>5.917432967630137</v>
+      </c>
       <c r="CK21" t="n">
         <v>1975</v>
       </c>
@@ -6484,32 +6740,43 @@
       <c r="CR21" t="n">
         <v>5.511066468086756</v>
       </c>
-      <c r="CS21" t="n">
+      <c r="CS21" t="inlineStr">
+        <is>
+          <t>Cameroon</t>
+        </is>
+      </c>
+      <c r="CT21" t="n">
+        <v>1961</v>
+      </c>
+      <c r="CU21" t="n">
+        <v>5239280</v>
+      </c>
+      <c r="CV21" t="n">
         <v>51.5</v>
       </c>
-      <c r="CT21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU21" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV21" t="n">
-        <v>0</v>
-      </c>
       <c r="CW21" t="n">
         <v>0</v>
       </c>
       <c r="CX21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB21" t="n">
         <v>0.8520455</v>
       </c>
-      <c r="CZ21" t="inlineStr"/>
-      <c r="DA21" t="n">
+      <c r="DC21" t="inlineStr"/>
+      <c r="DD21" t="n">
         <v>6</v>
       </c>
-      <c r="DB21" t="n">
+      <c r="DE21" t="n">
         <v>12</v>
       </c>
     </row>
@@ -6762,34 +7029,45 @@
       <c r="CP22" t="inlineStr"/>
       <c r="CQ22" t="inlineStr"/>
       <c r="CR22" t="inlineStr"/>
-      <c r="CS22" t="n">
+      <c r="CS22" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="CT22" t="n">
+        <v>1877</v>
+      </c>
+      <c r="CU22" t="n">
+        <v>4153029</v>
+      </c>
+      <c r="CV22" t="n">
         <v>77.5</v>
       </c>
-      <c r="CT22" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV22" t="n">
-        <v>0</v>
-      </c>
       <c r="CW22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX22" t="n">
         <v>0</v>
       </c>
       <c r="CY22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB22" t="n">
         <v>0.3761876</v>
       </c>
-      <c r="CZ22" t="n">
+      <c r="DC22" t="n">
         <v>0.905</v>
       </c>
-      <c r="DA22" t="n">
+      <c r="DD22" t="n">
         <v>60</v>
       </c>
-      <c r="DB22" t="n">
+      <c r="DE22" t="n">
         <v>-95</v>
       </c>
     </row>
@@ -7044,34 +7322,45 @@
       <c r="CR23" t="n">
         <v>7.200525624178711</v>
       </c>
-      <c r="CS23" t="n">
+      <c r="CS23" t="inlineStr">
+        <is>
+          <t>Cape Verde</t>
+        </is>
+      </c>
+      <c r="CT23" t="n">
+        <v>1975</v>
+      </c>
+      <c r="CU23" t="n">
+        <v>305857</v>
+      </c>
+      <c r="CV23" t="n">
         <v>236.7</v>
       </c>
-      <c r="CT23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU23" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV23" t="n">
-        <v>0</v>
-      </c>
       <c r="CW23" t="n">
         <v>0</v>
       </c>
       <c r="CX23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB23" t="n">
         <v>0.375</v>
       </c>
-      <c r="CZ23" t="n">
+      <c r="DC23" t="n">
         <v>0.02</v>
       </c>
-      <c r="DA23" t="n">
+      <c r="DD23" t="n">
         <v>16</v>
       </c>
-      <c r="DB23" t="n">
+      <c r="DE23" t="n">
         <v>-24</v>
       </c>
     </row>
@@ -7308,8 +7597,12 @@
       <c r="CH24" t="n">
         <v>1.493378232112824</v>
       </c>
-      <c r="CI24" t="inlineStr"/>
-      <c r="CJ24" t="inlineStr"/>
+      <c r="CI24" t="n">
+        <v>1960</v>
+      </c>
+      <c r="CJ24" t="n">
+        <v>4.11366409510029</v>
+      </c>
       <c r="CK24" t="inlineStr"/>
       <c r="CL24" t="inlineStr"/>
       <c r="CM24" t="n">
@@ -7330,32 +7623,43 @@
       <c r="CR24" t="n">
         <v>4.689598232005058</v>
       </c>
-      <c r="CS24" t="n">
+      <c r="CS24" t="inlineStr">
+        <is>
+          <t>Central African Republic</t>
+        </is>
+      </c>
+      <c r="CT24" t="n">
+        <v>1960</v>
+      </c>
+      <c r="CU24" t="n">
+        <v>1702348</v>
+      </c>
+      <c r="CV24" t="n">
         <v>19.7</v>
       </c>
-      <c r="CT24" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU24" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV24" t="n">
-        <v>0</v>
-      </c>
       <c r="CW24" t="n">
         <v>0</v>
       </c>
       <c r="CX24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB24" t="n">
         <v>0.7855555</v>
       </c>
-      <c r="CZ24" t="inlineStr"/>
-      <c r="DA24" t="n">
+      <c r="DC24" t="inlineStr"/>
+      <c r="DD24" t="n">
         <v>7</v>
       </c>
-      <c r="DB24" t="n">
+      <c r="DE24" t="n">
         <v>21</v>
       </c>
     </row>
@@ -7592,8 +7896,12 @@
       <c r="CH25" t="n">
         <v>2.236705938714722</v>
       </c>
-      <c r="CI25" t="inlineStr"/>
-      <c r="CJ25" t="inlineStr"/>
+      <c r="CI25" t="n">
+        <v>1960</v>
+      </c>
+      <c r="CJ25" t="n">
+        <v>4.553365892646708</v>
+      </c>
       <c r="CK25" t="n">
         <v>1975</v>
       </c>
@@ -7618,32 +7926,43 @@
       <c r="CR25" t="n">
         <v>5.294056286708452</v>
       </c>
-      <c r="CS25" t="n">
+      <c r="CS25" t="inlineStr">
+        <is>
+          <t>Chad</t>
+        </is>
+      </c>
+      <c r="CT25" t="n">
+        <v>1960</v>
+      </c>
+      <c r="CU25" t="n">
+        <v>3049842</v>
+      </c>
+      <c r="CV25" t="n">
         <v>41.9</v>
       </c>
-      <c r="CT25" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU25" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV25" t="n">
-        <v>0</v>
-      </c>
       <c r="CW25" t="n">
         <v>0</v>
       </c>
       <c r="CX25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB25" t="n">
         <v>0.6662003</v>
       </c>
-      <c r="CZ25" t="inlineStr"/>
-      <c r="DA25" t="n">
+      <c r="DC25" t="inlineStr"/>
+      <c r="DD25" t="n">
         <v>15</v>
       </c>
-      <c r="DB25" t="n">
+      <c r="DE25" t="n">
         <v>19</v>
       </c>
     </row>
@@ -7870,34 +8189,45 @@
       <c r="CP26" t="inlineStr"/>
       <c r="CQ26" t="inlineStr"/>
       <c r="CR26" t="inlineStr"/>
-      <c r="CS26" t="n">
+      <c r="CS26" t="inlineStr">
+        <is>
+          <t>Chile</t>
+        </is>
+      </c>
+      <c r="CT26" t="n">
+        <v>1817</v>
+      </c>
+      <c r="CU26" t="n">
+        <v>771447</v>
+      </c>
+      <c r="CV26" t="n">
         <v>248.1</v>
       </c>
-      <c r="CT26" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU26" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV26" t="n">
-        <v>0</v>
-      </c>
       <c r="CW26" t="n">
         <v>0</v>
       </c>
       <c r="CX26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB26" t="n">
         <v>0.050625</v>
       </c>
-      <c r="CZ26" t="n">
+      <c r="DC26" t="n">
         <v>0.027</v>
       </c>
-      <c r="DA26" t="n">
+      <c r="DD26" t="n">
         <v>-30</v>
       </c>
-      <c r="DB26" t="n">
+      <c r="DE26" t="n">
         <v>-71</v>
       </c>
     </row>
@@ -8124,34 +8454,45 @@
       <c r="CP27" t="inlineStr"/>
       <c r="CQ27" t="inlineStr"/>
       <c r="CR27" t="inlineStr"/>
-      <c r="CS27" t="n">
+      <c r="CS27" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="CT27" t="n">
+        <v>1819</v>
+      </c>
+      <c r="CU27" t="n">
+        <v>1214218</v>
+      </c>
+      <c r="CV27" t="n">
         <v>88.5</v>
       </c>
-      <c r="CT27" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU27" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV27" t="n">
-        <v>0</v>
-      </c>
       <c r="CW27" t="n">
         <v>0</v>
       </c>
       <c r="CX27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB27" t="n">
         <v>0.055796</v>
       </c>
-      <c r="CZ27" t="n">
+      <c r="DC27" t="n">
         <v>0.067</v>
       </c>
-      <c r="DA27" t="n">
+      <c r="DD27" t="n">
         <v>4</v>
       </c>
-      <c r="DB27" t="n">
+      <c r="DE27" t="n">
         <v>-72</v>
       </c>
     </row>
@@ -8388,32 +8729,43 @@
       <c r="CR28" t="n">
         <v>6.31</v>
       </c>
-      <c r="CS28" t="n">
+      <c r="CS28" t="inlineStr">
+        <is>
+          <t>Comoros</t>
+        </is>
+      </c>
+      <c r="CT28" t="n">
+        <v>1975</v>
+      </c>
+      <c r="CU28" t="n">
+        <v>287703</v>
+      </c>
+      <c r="CV28" t="n">
         <v>332.8</v>
       </c>
-      <c r="CT28" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU28" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV28" t="n">
-        <v>0</v>
-      </c>
       <c r="CW28" t="n">
         <v>0</v>
       </c>
       <c r="CX28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY28" t="n">
-        <v>1</v>
-      </c>
-      <c r="CZ28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="CZ28" t="n">
+        <v>0</v>
+      </c>
       <c r="DA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB28" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC28" t="inlineStr"/>
+      <c r="DD28" t="n">
         <v>-12.1667</v>
       </c>
-      <c r="DB28" t="n">
+      <c r="DE28" t="n">
         <v>44.25</v>
       </c>
     </row>
@@ -8650,8 +9002,12 @@
       <c r="CH29" t="n">
         <v>1.362859333667845</v>
       </c>
-      <c r="CI29" t="inlineStr"/>
-      <c r="CJ29" t="inlineStr"/>
+      <c r="CI29" t="n">
+        <v>1960</v>
+      </c>
+      <c r="CJ29" t="n">
+        <v>4.273788150323393</v>
+      </c>
       <c r="CK29" t="n">
         <v>1970</v>
       </c>
@@ -8676,32 +9032,43 @@
       <c r="CR29" t="n">
         <v>4.249831810490696</v>
       </c>
-      <c r="CS29" t="n">
+      <c r="CS29" t="inlineStr">
+        <is>
+          <t>Congo</t>
+        </is>
+      </c>
+      <c r="CT29" t="n">
+        <v>1960</v>
+      </c>
+      <c r="CU29" t="n">
+        <v>1056737</v>
+      </c>
+      <c r="CV29" t="n">
         <v>15.2</v>
       </c>
-      <c r="CT29" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU29" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV29" t="n">
-        <v>0</v>
-      </c>
       <c r="CW29" t="n">
         <v>0</v>
       </c>
       <c r="CX29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB29" t="n">
         <v>0.6692753</v>
       </c>
-      <c r="CZ29" t="inlineStr"/>
-      <c r="DA29" t="n">
+      <c r="DC29" t="inlineStr"/>
+      <c r="DD29" t="n">
         <v>-1</v>
       </c>
-      <c r="DB29" t="n">
+      <c r="DE29" t="n">
         <v>15</v>
       </c>
     </row>
@@ -8938,8 +9305,12 @@
       <c r="CH30" t="n">
         <v>1.783324677667425</v>
       </c>
-      <c r="CI30" t="inlineStr"/>
-      <c r="CJ30" t="inlineStr"/>
+      <c r="CI30" t="n">
+        <v>1960</v>
+      </c>
+      <c r="CJ30" t="n">
+        <v>4.040645435215898</v>
+      </c>
       <c r="CK30" t="n">
         <v>1970</v>
       </c>
@@ -8964,20 +9335,31 @@
       <c r="CR30" t="n">
         <v>3.696973200910485</v>
       </c>
-      <c r="CS30" t="n">
+      <c r="CS30" t="inlineStr">
+        <is>
+          <t>Democratic Republic of Congo</t>
+        </is>
+      </c>
+      <c r="CT30" t="n">
+        <v>1960</v>
+      </c>
+      <c r="CU30" t="n">
+        <v>15264853</v>
+      </c>
+      <c r="CV30" t="n">
         <v>44.3</v>
       </c>
-      <c r="CT30" t="inlineStr"/>
-      <c r="CU30" t="inlineStr"/>
-      <c r="CV30" t="inlineStr"/>
       <c r="CW30" t="inlineStr"/>
       <c r="CX30" t="inlineStr"/>
       <c r="CY30" t="inlineStr"/>
       <c r="CZ30" t="inlineStr"/>
-      <c r="DA30" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB30" t="n">
+      <c r="DA30" t="inlineStr"/>
+      <c r="DB30" t="inlineStr"/>
+      <c r="DC30" t="inlineStr"/>
+      <c r="DD30" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE30" t="n">
         <v>25</v>
       </c>
     </row>
@@ -9204,34 +9586,45 @@
       <c r="CP31" t="inlineStr"/>
       <c r="CQ31" t="inlineStr"/>
       <c r="CR31" t="inlineStr"/>
-      <c r="CS31" t="n">
+      <c r="CS31" t="inlineStr">
+        <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="CT31" t="n">
+        <v>1821</v>
+      </c>
+      <c r="CU31" t="n">
+        <v>64547</v>
+      </c>
+      <c r="CV31" t="n">
         <v>211.2</v>
       </c>
-      <c r="CT31" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU31" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV31" t="n">
-        <v>0</v>
-      </c>
       <c r="CW31" t="n">
         <v>0</v>
       </c>
       <c r="CX31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY31" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA31" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB31" t="n">
         <v>0.0532143</v>
       </c>
-      <c r="CZ31" t="n">
+      <c r="DC31" t="n">
         <v>0.154</v>
       </c>
-      <c r="DA31" t="n">
+      <c r="DD31" t="n">
         <v>10</v>
       </c>
-      <c r="DB31" t="n">
+      <c r="DE31" t="n">
         <v>-84</v>
       </c>
     </row>
@@ -9468,8 +9861,12 @@
       <c r="CH32" t="n">
         <v>1.162572568104591</v>
       </c>
-      <c r="CI32" t="inlineStr"/>
-      <c r="CJ32" t="inlineStr"/>
+      <c r="CI32" t="n">
+        <v>1960</v>
+      </c>
+      <c r="CJ32" t="n">
+        <v>4.250783148098471</v>
+      </c>
       <c r="CK32" t="n">
         <v>1975</v>
       </c>
@@ -9494,32 +9891,43 @@
       <c r="CR32" t="n">
         <v>5.768129776343256</v>
       </c>
-      <c r="CS32" t="n">
+      <c r="CS32" t="inlineStr">
+        <is>
+          <t>Cote d'Ivoire</t>
+        </is>
+      </c>
+      <c r="CT32" t="n">
+        <v>1960</v>
+      </c>
+      <c r="CU32" t="n">
+        <v>3673672</v>
+      </c>
+      <c r="CV32" t="n">
         <v>22.4</v>
       </c>
-      <c r="CT32" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU32" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV32" t="n">
-        <v>0</v>
-      </c>
       <c r="CW32" t="n">
         <v>0</v>
       </c>
       <c r="CX32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY32" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB32" t="n">
         <v>0.8565299</v>
       </c>
-      <c r="CZ32" t="inlineStr"/>
-      <c r="DA32" t="n">
+      <c r="DC32" t="inlineStr"/>
+      <c r="DD32" t="n">
         <v>8</v>
       </c>
-      <c r="DB32" t="n">
+      <c r="DE32" t="n">
         <v>-5</v>
       </c>
     </row>
@@ -9706,32 +10114,43 @@
       <c r="CP33" t="inlineStr"/>
       <c r="CQ33" t="inlineStr"/>
       <c r="CR33" t="inlineStr"/>
-      <c r="CS33" t="n">
+      <c r="CS33" t="inlineStr">
+        <is>
+          <t>Cuba</t>
+        </is>
+      </c>
+      <c r="CT33" t="n">
+        <v>1898</v>
+      </c>
+      <c r="CU33" t="n">
+        <v>1684304</v>
+      </c>
+      <c r="CV33" t="n">
         <v>52.8</v>
       </c>
-      <c r="CT33" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU33" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV33" t="n">
-        <v>1</v>
-      </c>
       <c r="CW33" t="n">
         <v>0</v>
       </c>
       <c r="CX33" t="n">
         <v>0</v>
       </c>
-      <c r="CY33" t="inlineStr"/>
+      <c r="CY33" t="n">
+        <v>1</v>
+      </c>
       <c r="CZ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA33" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB33" t="inlineStr"/>
+      <c r="DC33" t="n">
         <v>0.673</v>
       </c>
-      <c r="DA33" t="n">
+      <c r="DD33" t="n">
         <v>21.5</v>
       </c>
-      <c r="DB33" t="n">
+      <c r="DE33" t="n">
         <v>-80</v>
       </c>
     </row>
@@ -9968,8 +10387,12 @@
       <c r="CH34" t="n">
         <v>1.177483846833504</v>
       </c>
-      <c r="CI34" t="inlineStr"/>
-      <c r="CJ34" t="inlineStr"/>
+      <c r="CI34" t="n">
+        <v>1960</v>
+      </c>
+      <c r="CJ34" t="n">
+        <v>6.187096744774141</v>
+      </c>
       <c r="CK34" t="n">
         <v>1970</v>
       </c>
@@ -9994,32 +10417,43 @@
       <c r="CR34" t="n">
         <v>6.588887744951186</v>
       </c>
-      <c r="CS34" t="n">
+      <c r="CS34" t="inlineStr">
+        <is>
+          <t>Cyprus</t>
+        </is>
+      </c>
+      <c r="CT34" t="n">
+        <v>1960</v>
+      </c>
+      <c r="CU34" t="n">
+        <v>586494</v>
+      </c>
+      <c r="CV34" t="n">
         <v>271.8</v>
       </c>
-      <c r="CT34" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU34" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV34" t="n">
-        <v>0</v>
-      </c>
       <c r="CW34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX34" t="n">
         <v>0</v>
       </c>
       <c r="CY34" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA34" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB34" t="n">
         <v>0.3</v>
       </c>
-      <c r="CZ34" t="inlineStr"/>
-      <c r="DA34" t="n">
+      <c r="DC34" t="inlineStr"/>
+      <c r="DD34" t="n">
         <v>35</v>
       </c>
-      <c r="DB34" t="n">
+      <c r="DE34" t="n">
         <v>33</v>
       </c>
     </row>
@@ -10256,34 +10690,45 @@
       <c r="CR35" t="n">
         <v>6.47041935483871</v>
       </c>
-      <c r="CS35" t="n">
+      <c r="CS35" t="inlineStr">
+        <is>
+          <t>Djibouti</t>
+        </is>
+      </c>
+      <c r="CT35" t="n">
+        <v>1977</v>
+      </c>
+      <c r="CU35" t="n">
+        <v>254630</v>
+      </c>
+      <c r="CV35" t="n">
         <v>243.2</v>
       </c>
-      <c r="CT35" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU35" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV35" t="n">
-        <v>0</v>
-      </c>
       <c r="CW35" t="n">
         <v>0</v>
       </c>
       <c r="CX35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY35" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA35" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB35" t="n">
         <v>0.7142857</v>
       </c>
-      <c r="CZ35" t="n">
+      <c r="DC35" t="n">
         <v>0.06900000000000001</v>
       </c>
-      <c r="DA35" t="n">
+      <c r="DD35" t="n">
         <v>11.5</v>
       </c>
-      <c r="DB35" t="n">
+      <c r="DE35" t="n">
         <v>43</v>
       </c>
     </row>
@@ -10476,34 +10921,45 @@
       <c r="CP36" t="inlineStr"/>
       <c r="CQ36" t="inlineStr"/>
       <c r="CR36" t="inlineStr"/>
-      <c r="CS36" t="n">
+      <c r="CS36" t="inlineStr">
+        <is>
+          <t>Dominica</t>
+        </is>
+      </c>
+      <c r="CT36" t="n">
+        <v>1972</v>
+      </c>
+      <c r="CU36" t="n">
+        <v>70071</v>
+      </c>
+      <c r="CV36" t="n">
         <v>0.3</v>
       </c>
-      <c r="CT36" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU36" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV36" t="n">
-        <v>0</v>
-      </c>
       <c r="CW36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX36" t="n">
         <v>0</v>
       </c>
       <c r="CY36" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA36" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB36" t="n">
         <v>0.5</v>
       </c>
-      <c r="CZ36" t="n">
+      <c r="DC36" t="n">
         <v>0.172</v>
       </c>
-      <c r="DA36" t="n">
+      <c r="DD36" t="n">
         <v>15.4167</v>
       </c>
-      <c r="DB36" t="n">
+      <c r="DE36" t="n">
         <v>-61.3333</v>
       </c>
     </row>
@@ -10730,34 +11186,45 @@
       <c r="CP37" t="inlineStr"/>
       <c r="CQ37" t="inlineStr"/>
       <c r="CR37" t="inlineStr"/>
-      <c r="CS37" t="n">
+      <c r="CS37" t="inlineStr">
+        <is>
+          <t>Dominican Republic</t>
+        </is>
+      </c>
+      <c r="CT37" t="n">
+        <v>1839</v>
+      </c>
+      <c r="CU37" t="n">
+        <v>121801</v>
+      </c>
+      <c r="CV37" t="n">
         <v>164.1</v>
       </c>
-      <c r="CT37" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU37" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV37" t="n">
-        <v>0</v>
-      </c>
       <c r="CW37" t="n">
         <v>0</v>
       </c>
       <c r="CX37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY37" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ37" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA37" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB37" t="n">
         <v>0.0108306</v>
       </c>
-      <c r="CZ37" t="n">
+      <c r="DC37" t="n">
         <v>0.25</v>
       </c>
-      <c r="DA37" t="n">
+      <c r="DD37" t="n">
         <v>19</v>
       </c>
-      <c r="DB37" t="n">
+      <c r="DE37" t="n">
         <v>-70.66670000000001</v>
       </c>
     </row>
@@ -10984,34 +11451,45 @@
       <c r="CP38" t="inlineStr"/>
       <c r="CQ38" t="inlineStr"/>
       <c r="CR38" t="inlineStr"/>
-      <c r="CS38" t="n">
+      <c r="CS38" t="inlineStr">
+        <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="CT38" t="n">
+        <v>1823</v>
+      </c>
+      <c r="CU38" t="n">
+        <v>525240</v>
+      </c>
+      <c r="CV38" t="n">
         <v>127.8</v>
       </c>
-      <c r="CT38" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU38" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV38" t="n">
-        <v>0</v>
-      </c>
       <c r="CW38" t="n">
         <v>0</v>
       </c>
       <c r="CX38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY38" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ38" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA38" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB38" t="n">
         <v>0.3253571</v>
       </c>
-      <c r="CZ38" t="n">
+      <c r="DC38" t="n">
         <v>0.06900000000000001</v>
       </c>
-      <c r="DA38" t="n">
+      <c r="DD38" t="n">
         <v>-2</v>
       </c>
-      <c r="DB38" t="n">
+      <c r="DE38" t="n">
         <v>-77.5</v>
       </c>
     </row>
@@ -11264,40 +11742,47 @@
       <c r="CP39" t="n">
         <v>4.664158753389847</v>
       </c>
-      <c r="CQ39" t="n">
-        <v>1975</v>
-      </c>
-      <c r="CR39" t="n">
-        <v>3.583248226227442</v>
-      </c>
-      <c r="CS39" t="n">
+      <c r="CQ39" t="inlineStr"/>
+      <c r="CR39" t="inlineStr"/>
+      <c r="CS39" t="inlineStr">
+        <is>
+          <t>Egypt</t>
+        </is>
+      </c>
+      <c r="CT39" t="n">
+        <v>1926</v>
+      </c>
+      <c r="CU39" t="n">
+        <v>13611246</v>
+      </c>
+      <c r="CV39" t="n">
         <v>72.3</v>
       </c>
-      <c r="CT39" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU39" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV39" t="n">
-        <v>0</v>
-      </c>
       <c r="CW39" t="n">
         <v>0</v>
       </c>
       <c r="CX39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY39" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ39" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA39" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB39" t="n">
         <v>0.0230618</v>
       </c>
-      <c r="CZ39" t="n">
+      <c r="DC39" t="n">
         <v>0.014</v>
       </c>
-      <c r="DA39" t="n">
+      <c r="DD39" t="n">
         <v>27</v>
       </c>
-      <c r="DB39" t="n">
+      <c r="DE39" t="n">
         <v>30</v>
       </c>
     </row>
@@ -11524,34 +12009,45 @@
       <c r="CP40" t="inlineStr"/>
       <c r="CQ40" t="inlineStr"/>
       <c r="CR40" t="inlineStr"/>
-      <c r="CS40" t="n">
+      <c r="CS40" t="inlineStr">
+        <is>
+          <t>El Salvador</t>
+        </is>
+      </c>
+      <c r="CT40" t="n">
+        <v>1821</v>
+      </c>
+      <c r="CU40" t="n">
+        <v>249940</v>
+      </c>
+      <c r="CV40" t="n">
         <v>175</v>
       </c>
-      <c r="CT40" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU40" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV40" t="n">
-        <v>0</v>
-      </c>
       <c r="CW40" t="n">
         <v>0</v>
       </c>
       <c r="CX40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY40" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ40" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA40" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB40" t="n">
         <v>0.0514286</v>
       </c>
-      <c r="CZ40" t="n">
+      <c r="DC40" t="n">
         <v>0.045</v>
       </c>
-      <c r="DA40" t="n">
+      <c r="DD40" t="n">
         <v>13.8333</v>
       </c>
-      <c r="DB40" t="n">
+      <c r="DE40" t="n">
         <v>-88.91670000000001</v>
       </c>
     </row>
@@ -11750,32 +12246,43 @@
       <c r="CP41" t="inlineStr"/>
       <c r="CQ41" t="inlineStr"/>
       <c r="CR41" t="inlineStr"/>
-      <c r="CS41" t="n">
+      <c r="CS41" t="inlineStr">
+        <is>
+          <t>Equatorial Guinea</t>
+        </is>
+      </c>
+      <c r="CT41" t="n">
+        <v>1968</v>
+      </c>
+      <c r="CU41" t="n">
+        <v>318853</v>
+      </c>
+      <c r="CV41" t="n">
         <v>55.90000000000001</v>
       </c>
-      <c r="CT41" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU41" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV41" t="n">
-        <v>0</v>
-      </c>
       <c r="CW41" t="n">
         <v>0</v>
       </c>
       <c r="CX41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY41" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA41" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB41" t="n">
         <v>0.625</v>
       </c>
-      <c r="CZ41" t="inlineStr"/>
-      <c r="DA41" t="n">
+      <c r="DC41" t="inlineStr"/>
+      <c r="DD41" t="n">
         <v>2</v>
       </c>
-      <c r="DB41" t="n">
+      <c r="DE41" t="n">
         <v>10</v>
       </c>
     </row>
@@ -11970,30 +12477,41 @@
       <c r="CP42" t="inlineStr"/>
       <c r="CQ42" t="inlineStr"/>
       <c r="CR42" t="inlineStr"/>
-      <c r="CS42" t="n">
+      <c r="CS42" t="inlineStr">
+        <is>
+          <t>Eritrea</t>
+        </is>
+      </c>
+      <c r="CT42" t="n">
+        <v>1951</v>
+      </c>
+      <c r="CU42" t="n">
+        <v>827035</v>
+      </c>
+      <c r="CV42" t="n">
         <v>248.1</v>
       </c>
-      <c r="CT42" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU42" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV42" t="n">
-        <v>0</v>
-      </c>
       <c r="CW42" t="n">
         <v>0</v>
       </c>
       <c r="CX42" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY42" t="inlineStr"/>
-      <c r="CZ42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="CY42" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ42" t="n">
+        <v>0</v>
+      </c>
       <c r="DA42" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB42" t="inlineStr"/>
+      <c r="DC42" t="inlineStr"/>
+      <c r="DD42" t="n">
         <v>15</v>
       </c>
-      <c r="DB42" t="n">
+      <c r="DE42" t="n">
         <v>39</v>
       </c>
     </row>
@@ -12230,8 +12748,12 @@
       <c r="CH43" t="n">
         <v>0.9711926892515974</v>
       </c>
-      <c r="CI43" t="inlineStr"/>
-      <c r="CJ43" t="inlineStr"/>
+      <c r="CI43" t="n">
+        <v>1970</v>
+      </c>
+      <c r="CJ43" t="n">
+        <v>6.055045588488964</v>
+      </c>
       <c r="CK43" t="n">
         <v>1980</v>
       </c>
@@ -12256,34 +12778,45 @@
       <c r="CR43" t="n">
         <v>6.318664923332592</v>
       </c>
-      <c r="CS43" t="n">
+      <c r="CS43" t="inlineStr">
+        <is>
+          <t>Fiji</t>
+        </is>
+      </c>
+      <c r="CT43" t="n">
+        <v>1970</v>
+      </c>
+      <c r="CU43" t="n">
+        <v>531197</v>
+      </c>
+      <c r="CV43" t="n">
         <v>139.6</v>
       </c>
-      <c r="CT43" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU43" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV43" t="n">
-        <v>0</v>
-      </c>
       <c r="CW43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX43" t="n">
         <v>0</v>
       </c>
       <c r="CY43" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ43" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA43" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB43" t="n">
         <v>0.8</v>
       </c>
-      <c r="CZ43" t="n">
+      <c r="DC43" t="n">
         <v>0.024</v>
       </c>
-      <c r="DA43" t="n">
+      <c r="DD43" t="n">
         <v>-18</v>
       </c>
-      <c r="DB43" t="n">
+      <c r="DE43" t="n">
         <v>175</v>
       </c>
     </row>
@@ -12520,8 +13053,12 @@
       <c r="CH44" t="n">
         <v>1.805400613153663</v>
       </c>
-      <c r="CI44" t="inlineStr"/>
-      <c r="CJ44" t="inlineStr"/>
+      <c r="CI44" t="n">
+        <v>1960</v>
+      </c>
+      <c r="CJ44" t="n">
+        <v>4.08163651209733</v>
+      </c>
       <c r="CK44" t="n">
         <v>1970</v>
       </c>
@@ -12546,34 +13083,45 @@
       <c r="CR44" t="n">
         <v>5.55862350329943</v>
       </c>
-      <c r="CS44" t="n">
+      <c r="CS44" t="inlineStr">
+        <is>
+          <t>Gabon</t>
+        </is>
+      </c>
+      <c r="CT44" t="n">
+        <v>1960</v>
+      </c>
+      <c r="CU44" t="n">
+        <v>512324</v>
+      </c>
+      <c r="CV44" t="n">
         <v>21.8</v>
       </c>
-      <c r="CT44" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU44" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV44" t="n">
-        <v>0</v>
-      </c>
       <c r="CW44" t="n">
         <v>0</v>
       </c>
       <c r="CX44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY44" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ44" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA44" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB44" t="n">
         <v>0.7966666999999999</v>
       </c>
-      <c r="CZ44" t="n">
+      <c r="DC44" t="n">
         <v>0.013</v>
       </c>
-      <c r="DA44" t="n">
+      <c r="DD44" t="n">
         <v>-1</v>
       </c>
-      <c r="DB44" t="n">
+      <c r="DE44" t="n">
         <v>11.75</v>
       </c>
     </row>
@@ -12810,8 +13358,12 @@
       <c r="CH45" t="n">
         <v>1.49937199973724</v>
       </c>
-      <c r="CI45" t="inlineStr"/>
-      <c r="CJ45" t="inlineStr"/>
+      <c r="CI45" t="n">
+        <v>1965</v>
+      </c>
+      <c r="CJ45" t="n">
+        <v>5.58263320216405</v>
+      </c>
       <c r="CK45" t="inlineStr"/>
       <c r="CL45" t="inlineStr"/>
       <c r="CM45" t="inlineStr"/>
@@ -12824,32 +13376,43 @@
       <c r="CR45" t="n">
         <v>7.080435764588714</v>
       </c>
-      <c r="CS45" t="n">
+      <c r="CS45" t="inlineStr">
+        <is>
+          <t>Gambia</t>
+        </is>
+      </c>
+      <c r="CT45" t="n">
+        <v>1965</v>
+      </c>
+      <c r="CU45" t="n">
+        <v>455960</v>
+      </c>
+      <c r="CV45" t="n">
         <v>35.3</v>
       </c>
-      <c r="CT45" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU45" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV45" t="n">
-        <v>0</v>
-      </c>
       <c r="CW45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX45" t="n">
         <v>0</v>
       </c>
       <c r="CY45" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ45" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA45" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB45" t="n">
         <v>0.7803704</v>
       </c>
-      <c r="CZ45" t="inlineStr"/>
-      <c r="DA45" t="n">
+      <c r="DC45" t="inlineStr"/>
+      <c r="DD45" t="n">
         <v>13.4667</v>
       </c>
-      <c r="DB45" t="n">
+      <c r="DE45" t="n">
         <v>-16.5667</v>
       </c>
     </row>
@@ -13098,8 +13661,12 @@
       <c r="CH46" t="n">
         <v>1.217323288009716</v>
       </c>
-      <c r="CI46" t="inlineStr"/>
-      <c r="CJ46" t="inlineStr"/>
+      <c r="CI46" t="n">
+        <v>1960</v>
+      </c>
+      <c r="CJ46" t="n">
+        <v>4.969083345191141</v>
+      </c>
       <c r="CK46" t="n">
         <v>1970</v>
       </c>
@@ -13124,34 +13691,45 @@
       <c r="CR46" t="n">
         <v>5.506064950061682</v>
       </c>
-      <c r="CS46" t="n">
+      <c r="CS46" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
+      <c r="CT46" t="n">
+        <v>1957</v>
+      </c>
+      <c r="CU46" t="n">
+        <v>6312496</v>
+      </c>
+      <c r="CV46" t="n">
         <v>22.8</v>
       </c>
-      <c r="CT46" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU46" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV46" t="n">
-        <v>0</v>
-      </c>
       <c r="CW46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX46" t="n">
         <v>0</v>
       </c>
       <c r="CY46" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ46" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA46" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB46" t="n">
         <v>0.7060708</v>
       </c>
-      <c r="CZ46" t="n">
+      <c r="DC46" t="n">
         <v>0.001</v>
       </c>
-      <c r="DA46" t="n">
+      <c r="DD46" t="n">
         <v>8</v>
       </c>
-      <c r="DB46" t="n">
+      <c r="DE46" t="n">
         <v>-2</v>
       </c>
     </row>
@@ -13344,20 +13922,22 @@
       <c r="CP47" t="inlineStr"/>
       <c r="CQ47" t="inlineStr"/>
       <c r="CR47" t="inlineStr"/>
-      <c r="CS47" t="n">
+      <c r="CS47" t="inlineStr">
+        <is>
+          <t>Grenada</t>
+        </is>
+      </c>
+      <c r="CT47" t="n">
+        <v>1970</v>
+      </c>
+      <c r="CU47" t="n">
+        <v>98430</v>
+      </c>
+      <c r="CV47" t="n">
         <v>208.8</v>
       </c>
-      <c r="CT47" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU47" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV47" t="n">
-        <v>0</v>
-      </c>
       <c r="CW47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX47" t="n">
         <v>0</v>
@@ -13366,12 +13946,21 @@
         <v>0</v>
       </c>
       <c r="CZ47" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA47" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB47" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC47" t="n">
         <v>0.101</v>
       </c>
-      <c r="DA47" t="n">
+      <c r="DD47" t="n">
         <v>12.1167</v>
       </c>
-      <c r="DB47" t="n">
+      <c r="DE47" t="n">
         <v>-61.6667</v>
       </c>
     </row>
@@ -13598,34 +14187,45 @@
       <c r="CP48" t="inlineStr"/>
       <c r="CQ48" t="inlineStr"/>
       <c r="CR48" t="inlineStr"/>
-      <c r="CS48" t="n">
+      <c r="CS48" t="inlineStr">
+        <is>
+          <t>Guatemala</t>
+        </is>
+      </c>
+      <c r="CT48" t="n">
+        <v>1821</v>
+      </c>
+      <c r="CU48" t="n">
+        <v>602710</v>
+      </c>
+      <c r="CV48" t="n">
         <v>180.7</v>
       </c>
-      <c r="CT48" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU48" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV48" t="n">
-        <v>0</v>
-      </c>
       <c r="CW48" t="n">
         <v>0</v>
       </c>
       <c r="CX48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY48" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ48" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA48" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB48" t="n">
         <v>0.4766667</v>
       </c>
-      <c r="CZ48" t="n">
+      <c r="DC48" t="n">
         <v>0.03</v>
       </c>
-      <c r="DA48" t="n">
+      <c r="DD48" t="n">
         <v>15.5</v>
       </c>
-      <c r="DB48" t="n">
+      <c r="DE48" t="n">
         <v>-90.25</v>
       </c>
     </row>
@@ -13862,8 +14462,12 @@
       <c r="CH49" t="n">
         <v>1.312540248929756</v>
       </c>
-      <c r="CI49" t="inlineStr"/>
-      <c r="CJ49" t="inlineStr"/>
+      <c r="CI49" t="n">
+        <v>1960</v>
+      </c>
+      <c r="CJ49" t="n">
+        <v>3.878033906131291</v>
+      </c>
       <c r="CK49" t="inlineStr"/>
       <c r="CL49" t="inlineStr"/>
       <c r="CM49" t="inlineStr"/>
@@ -13872,32 +14476,43 @@
       <c r="CP49" t="inlineStr"/>
       <c r="CQ49" t="inlineStr"/>
       <c r="CR49" t="inlineStr"/>
-      <c r="CS49" t="n">
+      <c r="CS49" t="inlineStr">
+        <is>
+          <t>Guinea</t>
+        </is>
+      </c>
+      <c r="CT49" t="n">
+        <v>1958</v>
+      </c>
+      <c r="CU49" t="n">
+        <v>3436438</v>
+      </c>
+      <c r="CV49" t="n">
         <v>74</v>
       </c>
-      <c r="CT49" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU49" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV49" t="n">
-        <v>0</v>
-      </c>
       <c r="CW49" t="n">
         <v>0</v>
       </c>
       <c r="CX49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY49" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ49" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA49" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB49" t="n">
         <v>0.75983</v>
       </c>
-      <c r="CZ49" t="inlineStr"/>
-      <c r="DA49" t="n">
+      <c r="DC49" t="inlineStr"/>
+      <c r="DD49" t="n">
         <v>11</v>
       </c>
-      <c r="DB49" t="n">
+      <c r="DE49" t="n">
         <v>-10</v>
       </c>
     </row>
@@ -14160,34 +14775,45 @@
       <c r="CR50" t="n">
         <v>5.192057921698172</v>
       </c>
-      <c r="CS50" t="n">
+      <c r="CS50" t="inlineStr">
+        <is>
+          <t>Guinea-Bissau</t>
+        </is>
+      </c>
+      <c r="CT50" t="n">
+        <v>1973</v>
+      </c>
+      <c r="CU50" t="n">
+        <v>592814</v>
+      </c>
+      <c r="CV50" t="n">
         <v>49.1</v>
       </c>
-      <c r="CT50" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU50" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV50" t="n">
-        <v>0</v>
-      </c>
       <c r="CW50" t="n">
         <v>0</v>
       </c>
       <c r="CX50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY50" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ50" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA50" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB50" t="n">
         <v>0.85</v>
       </c>
-      <c r="CZ50" t="n">
+      <c r="DC50" t="n">
         <v>0.004</v>
       </c>
-      <c r="DA50" t="n">
+      <c r="DD50" t="n">
         <v>12</v>
       </c>
-      <c r="DB50" t="n">
+      <c r="DE50" t="n">
         <v>-15</v>
       </c>
     </row>
@@ -14452,34 +15078,45 @@
       <c r="CR51" t="n">
         <v>6.369056603773585</v>
       </c>
-      <c r="CS51" t="n">
+      <c r="CS51" t="inlineStr">
+        <is>
+          <t>Guyana</t>
+        </is>
+      </c>
+      <c r="CT51" t="n">
+        <v>1966</v>
+      </c>
+      <c r="CU51" t="n">
+        <v>648654</v>
+      </c>
+      <c r="CV51" t="n">
         <v>27.3</v>
       </c>
-      <c r="CT51" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU51" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV51" t="n">
-        <v>0</v>
-      </c>
       <c r="CW51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX51" t="n">
         <v>0</v>
       </c>
       <c r="CY51" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ51" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA51" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB51" t="n">
         <v>0.2377778</v>
       </c>
-      <c r="CZ51" t="n">
+      <c r="DC51" t="n">
         <v>0.057</v>
       </c>
-      <c r="DA51" t="n">
+      <c r="DD51" t="n">
         <v>5</v>
       </c>
-      <c r="DB51" t="n">
+      <c r="DE51" t="n">
         <v>-59</v>
       </c>
     </row>
@@ -14706,34 +15343,45 @@
       <c r="CP52" t="inlineStr"/>
       <c r="CQ52" t="inlineStr"/>
       <c r="CR52" t="inlineStr"/>
-      <c r="CS52" t="n">
+      <c r="CS52" t="inlineStr">
+        <is>
+          <t>Haiti</t>
+        </is>
+      </c>
+      <c r="CT52" t="n">
+        <v>1804</v>
+      </c>
+      <c r="CU52" t="n">
+        <v>538274</v>
+      </c>
+      <c r="CV52" t="n">
         <v>236.2</v>
       </c>
-      <c r="CT52" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU52" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV52" t="n">
-        <v>0</v>
-      </c>
       <c r="CW52" t="n">
         <v>0</v>
       </c>
       <c r="CX52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY52" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ52" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA52" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB52" t="n">
         <v>0.0644048</v>
       </c>
-      <c r="CZ52" t="n">
+      <c r="DC52" t="n">
         <v>0.035</v>
       </c>
-      <c r="DA52" t="n">
+      <c r="DD52" t="n">
         <v>19</v>
       </c>
-      <c r="DB52" t="n">
+      <c r="DE52" t="n">
         <v>-72.41670000000001</v>
       </c>
     </row>
@@ -14960,34 +15608,45 @@
       <c r="CP53" t="inlineStr"/>
       <c r="CQ53" t="inlineStr"/>
       <c r="CR53" t="inlineStr"/>
-      <c r="CS53" t="n">
+      <c r="CS53" t="inlineStr">
+        <is>
+          <t>Honduras</t>
+        </is>
+      </c>
+      <c r="CT53" t="n">
+        <v>1821</v>
+      </c>
+      <c r="CU53" t="n">
+        <v>140289</v>
+      </c>
+      <c r="CV53" t="n">
         <v>215</v>
       </c>
-      <c r="CT53" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU53" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV53" t="n">
-        <v>0</v>
-      </c>
       <c r="CW53" t="n">
         <v>0</v>
       </c>
       <c r="CX53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY53" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ53" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA53" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB53" t="n">
         <v>0.0973593</v>
       </c>
-      <c r="CZ53" t="n">
+      <c r="DC53" t="n">
         <v>0.057</v>
       </c>
-      <c r="DA53" t="n">
+      <c r="DD53" t="n">
         <v>15</v>
       </c>
-      <c r="DB53" t="n">
+      <c r="DE53" t="n">
         <v>-86.5</v>
       </c>
     </row>
@@ -15224,8 +15883,12 @@
       <c r="CH54" t="n">
         <v>1.115277828386452</v>
       </c>
-      <c r="CI54" t="inlineStr"/>
-      <c r="CJ54" t="inlineStr"/>
+      <c r="CI54" t="n">
+        <v>1950</v>
+      </c>
+      <c r="CJ54" t="n">
+        <v>5.965532774240915</v>
+      </c>
       <c r="CK54" t="n">
         <v>1960</v>
       </c>
@@ -15250,32 +15913,43 @@
       <c r="CR54" t="n">
         <v>5.199827981849703</v>
       </c>
-      <c r="CS54" t="n">
+      <c r="CS54" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="CT54" t="n">
+        <v>1947</v>
+      </c>
+      <c r="CU54" t="n">
+        <v>359345897</v>
+      </c>
+      <c r="CV54" t="n">
         <v>101.3</v>
       </c>
-      <c r="CT54" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU54" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV54" t="n">
-        <v>0</v>
-      </c>
       <c r="CW54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX54" t="n">
         <v>0</v>
       </c>
       <c r="CY54" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ54" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA54" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB54" t="n">
         <v>0.7421975</v>
       </c>
-      <c r="CZ54" t="inlineStr"/>
-      <c r="DA54" t="n">
+      <c r="DC54" t="inlineStr"/>
+      <c r="DD54" t="n">
         <v>20</v>
       </c>
-      <c r="DB54" t="n">
+      <c r="DE54" t="n">
         <v>77</v>
       </c>
     </row>
@@ -15512,8 +16186,12 @@
       <c r="CH55" t="n">
         <v>1.777269024517568</v>
       </c>
-      <c r="CI55" t="inlineStr"/>
-      <c r="CJ55" t="inlineStr"/>
+      <c r="CI55" t="n">
+        <v>1955</v>
+      </c>
+      <c r="CJ55" t="n">
+        <v>4.421731602388297</v>
+      </c>
       <c r="CK55" t="n">
         <v>1965</v>
       </c>
@@ -15538,32 +16216,43 @@
       <c r="CR55" t="n">
         <v>6.502133386534655</v>
       </c>
-      <c r="CS55" t="n">
+      <c r="CS55" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="CT55" t="n">
+        <v>1952</v>
+      </c>
+      <c r="CU55" t="n">
+        <v>71876439</v>
+      </c>
+      <c r="CV55" t="n">
         <v>96.7</v>
       </c>
-      <c r="CT55" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU55" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV55" t="n">
-        <v>0</v>
-      </c>
       <c r="CW55" t="n">
         <v>0</v>
       </c>
       <c r="CX55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY55" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ55" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA55" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB55" t="n">
         <v>0.6905679</v>
       </c>
-      <c r="CZ55" t="inlineStr"/>
-      <c r="DA55" t="n">
+      <c r="DC55" t="inlineStr"/>
+      <c r="DD55" t="n">
         <v>-5</v>
       </c>
-      <c r="DB55" t="n">
+      <c r="DE55" t="n">
         <v>120</v>
       </c>
     </row>
@@ -15810,30 +16499,41 @@
       <c r="CP56" t="inlineStr"/>
       <c r="CQ56" t="inlineStr"/>
       <c r="CR56" t="inlineStr"/>
-      <c r="CS56" t="n">
+      <c r="CS56" t="inlineStr">
+        <is>
+          <t>Iraq</t>
+        </is>
+      </c>
+      <c r="CT56" t="n">
+        <v>1932</v>
+      </c>
+      <c r="CU56" t="n">
+        <v>3979174</v>
+      </c>
+      <c r="CV56" t="n">
         <v>67</v>
       </c>
-      <c r="CT56" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU56" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV56" t="n">
-        <v>0</v>
-      </c>
       <c r="CW56" t="n">
         <v>0</v>
       </c>
       <c r="CX56" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY56" t="inlineStr"/>
-      <c r="CZ56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="CY56" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ56" t="n">
+        <v>0</v>
+      </c>
       <c r="DA56" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB56" t="inlineStr"/>
+      <c r="DC56" t="inlineStr"/>
+      <c r="DD56" t="n">
         <v>33</v>
       </c>
-      <c r="DB56" t="n">
+      <c r="DE56" t="n">
         <v>44</v>
       </c>
     </row>
@@ -16070,8 +16770,12 @@
       <c r="CH57" t="n">
         <v>1.505337500583436</v>
       </c>
-      <c r="CI57" t="inlineStr"/>
-      <c r="CJ57" t="inlineStr"/>
+      <c r="CI57" t="n">
+        <v>1950</v>
+      </c>
+      <c r="CJ57" t="n">
+        <v>5.110229121004549</v>
+      </c>
       <c r="CK57" t="n">
         <v>1960</v>
       </c>
@@ -16096,32 +16800,43 @@
       <c r="CR57" t="n">
         <v>5.060214560381857</v>
       </c>
-      <c r="CS57" t="n">
+      <c r="CS57" t="inlineStr">
+        <is>
+          <t>Israel</t>
+        </is>
+      </c>
+      <c r="CT57" t="n">
+        <v>1948</v>
+      </c>
+      <c r="CU57" t="n">
+        <v>1182170</v>
+      </c>
+      <c r="CV57" t="n">
         <v>170.5</v>
       </c>
-      <c r="CT57" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU57" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV57" t="n">
-        <v>0</v>
-      </c>
       <c r="CW57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX57" t="n">
         <v>0</v>
       </c>
       <c r="CY57" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ57" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA57" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB57" t="n">
         <v>0.3270557</v>
       </c>
-      <c r="CZ57" t="inlineStr"/>
-      <c r="DA57" t="n">
+      <c r="DC57" t="inlineStr"/>
+      <c r="DD57" t="n">
         <v>31.5</v>
       </c>
-      <c r="DB57" t="n">
+      <c r="DE57" t="n">
         <v>34.75</v>
       </c>
     </row>
@@ -16364,8 +17079,12 @@
       <c r="CH58" t="n">
         <v>1.402112483942529</v>
       </c>
-      <c r="CI58" t="inlineStr"/>
-      <c r="CJ58" t="inlineStr"/>
+      <c r="CI58" t="n">
+        <v>1965</v>
+      </c>
+      <c r="CJ58" t="n">
+        <v>7.347481944095005</v>
+      </c>
       <c r="CK58" t="n">
         <v>1975</v>
       </c>
@@ -16390,34 +17109,45 @@
       <c r="CR58" t="n">
         <v>7.41992460070879</v>
       </c>
-      <c r="CS58" t="n">
+      <c r="CS58" t="inlineStr">
+        <is>
+          <t>Jamaica</t>
+        </is>
+      </c>
+      <c r="CT58" t="n">
+        <v>1962</v>
+      </c>
+      <c r="CU58" t="n">
+        <v>1696935</v>
+      </c>
+      <c r="CV58" t="n">
         <v>178.8</v>
       </c>
-      <c r="CT58" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU58" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV58" t="n">
-        <v>0</v>
-      </c>
       <c r="CW58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX58" t="n">
         <v>0</v>
       </c>
       <c r="CY58" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ58" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA58" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB58" t="n">
         <v>0.0125</v>
       </c>
-      <c r="CZ58" t="n">
+      <c r="DC58" t="n">
         <v>0.095</v>
       </c>
-      <c r="DA58" t="n">
+      <c r="DD58" t="n">
         <v>18.25</v>
       </c>
-      <c r="DB58" t="n">
+      <c r="DE58" t="n">
         <v>-77.5</v>
       </c>
     </row>
@@ -16654,8 +17384,12 @@
       <c r="CH59" t="n">
         <v>2.027268121262756</v>
       </c>
-      <c r="CI59" t="inlineStr"/>
-      <c r="CJ59" t="inlineStr"/>
+      <c r="CI59" t="n">
+        <v>1950</v>
+      </c>
+      <c r="CJ59" t="n">
+        <v>4.053233247648111</v>
+      </c>
       <c r="CK59" t="n">
         <v>1960</v>
       </c>
@@ -16680,32 +17414,43 @@
       <c r="CR59" t="n">
         <v>5.38982163514012</v>
       </c>
-      <c r="CS59" t="n">
+      <c r="CS59" t="inlineStr">
+        <is>
+          <t>Jordan</t>
+        </is>
+      </c>
+      <c r="CT59" t="n">
+        <v>1946</v>
+      </c>
+      <c r="CU59" t="n">
+        <v>346033</v>
+      </c>
+      <c r="CV59" t="n">
         <v>109.7</v>
       </c>
-      <c r="CT59" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU59" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV59" t="n">
-        <v>0</v>
-      </c>
       <c r="CW59" t="n">
         <v>0</v>
       </c>
       <c r="CX59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY59" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ59" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA59" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB59" t="n">
         <v>0.0297194</v>
       </c>
-      <c r="CZ59" t="inlineStr"/>
-      <c r="DA59" t="n">
+      <c r="DC59" t="inlineStr"/>
+      <c r="DD59" t="n">
         <v>31</v>
       </c>
-      <c r="DB59" t="n">
+      <c r="DE59" t="n">
         <v>36</v>
       </c>
     </row>
@@ -16942,8 +17687,12 @@
       <c r="CH60" t="n">
         <v>1.586104096895388</v>
       </c>
-      <c r="CI60" t="inlineStr"/>
-      <c r="CJ60" t="inlineStr"/>
+      <c r="CI60" t="n">
+        <v>1965</v>
+      </c>
+      <c r="CJ60" t="n">
+        <v>5.651874273331257</v>
+      </c>
       <c r="CK60" t="n">
         <v>1975</v>
       </c>
@@ -16968,34 +17717,45 @@
       <c r="CR60" t="n">
         <v>6.702666217070024</v>
       </c>
-      <c r="CS60" t="n">
+      <c r="CS60" t="inlineStr">
+        <is>
+          <t>Kenya</t>
+        </is>
+      </c>
+      <c r="CT60" t="n">
+        <v>1963</v>
+      </c>
+      <c r="CU60" t="n">
+        <v>8627972</v>
+      </c>
+      <c r="CV60" t="n">
         <v>66.90000000000001</v>
       </c>
-      <c r="CT60" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU60" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV60" t="n">
-        <v>0</v>
-      </c>
       <c r="CW60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX60" t="n">
         <v>0</v>
       </c>
       <c r="CY60" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ60" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA60" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB60" t="n">
         <v>0.8269649</v>
       </c>
-      <c r="CZ60" t="n">
+      <c r="DC60" t="n">
         <v>0.003</v>
       </c>
-      <c r="DA60" t="n">
-        <v>1</v>
-      </c>
-      <c r="DB60" t="n">
+      <c r="DD60" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE60" t="n">
         <v>38</v>
       </c>
     </row>
@@ -17182,32 +17942,43 @@
       <c r="CP61" t="inlineStr"/>
       <c r="CQ61" t="inlineStr"/>
       <c r="CR61" t="inlineStr"/>
-      <c r="CS61" t="n">
-        <v>1</v>
+      <c r="CS61" t="inlineStr">
+        <is>
+          <t>Kiribati</t>
+        </is>
       </c>
       <c r="CT61" t="n">
-        <v>1</v>
+        <v>1979</v>
       </c>
       <c r="CU61" t="n">
-        <v>0</v>
+        <v>60191</v>
       </c>
       <c r="CV61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX61" t="n">
         <v>0</v>
       </c>
       <c r="CY61" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ61" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA61" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB61" t="n">
         <v>0.5</v>
       </c>
-      <c r="CZ61" t="inlineStr"/>
-      <c r="DA61" t="n">
+      <c r="DC61" t="inlineStr"/>
+      <c r="DD61" t="n">
         <v>1.4167</v>
       </c>
-      <c r="DB61" t="n">
+      <c r="DE61" t="n">
         <v>173</v>
       </c>
     </row>
@@ -17470,30 +18241,41 @@
       <c r="CR62" t="n">
         <v>6.910062392451302</v>
       </c>
-      <c r="CS62" t="n">
+      <c r="CS62" t="inlineStr">
+        <is>
+          <t>Kuwait</t>
+        </is>
+      </c>
+      <c r="CT62" t="n">
+        <v>1961</v>
+      </c>
+      <c r="CU62" t="n">
+        <v>345953</v>
+      </c>
+      <c r="CV62" t="n">
         <v>24.5</v>
       </c>
-      <c r="CT62" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU62" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV62" t="n">
-        <v>0</v>
-      </c>
       <c r="CW62" t="n">
         <v>0</v>
       </c>
       <c r="CX62" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY62" t="inlineStr"/>
-      <c r="CZ62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="CY62" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ62" t="n">
+        <v>0</v>
+      </c>
       <c r="DA62" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB62" t="inlineStr"/>
+      <c r="DC62" t="inlineStr"/>
+      <c r="DD62" t="n">
         <v>29.3375</v>
       </c>
-      <c r="DB62" t="n">
+      <c r="DE62" t="n">
         <v>47.6581</v>
       </c>
     </row>
@@ -17740,18 +18522,20 @@
       <c r="CP63" t="inlineStr"/>
       <c r="CQ63" t="inlineStr"/>
       <c r="CR63" t="inlineStr"/>
-      <c r="CS63" t="n">
+      <c r="CS63" t="inlineStr">
+        <is>
+          <t>Laos</t>
+        </is>
+      </c>
+      <c r="CT63" t="n">
+        <v>1952</v>
+      </c>
+      <c r="CU63" t="n">
+        <v>1766187</v>
+      </c>
+      <c r="CV63" t="n">
         <v>255.3</v>
       </c>
-      <c r="CT63" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU63" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV63" t="n">
-        <v>1</v>
-      </c>
       <c r="CW63" t="n">
         <v>0</v>
       </c>
@@ -17759,13 +18543,22 @@
         <v>0</v>
       </c>
       <c r="CY63" t="n">
+        <v>1</v>
+      </c>
+      <c r="CZ63" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA63" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB63" t="n">
         <v>0.25</v>
       </c>
-      <c r="CZ63" t="inlineStr"/>
-      <c r="DA63" t="n">
+      <c r="DC63" t="inlineStr"/>
+      <c r="DD63" t="n">
         <v>18</v>
       </c>
-      <c r="DB63" t="n">
+      <c r="DE63" t="n">
         <v>105</v>
       </c>
     </row>
@@ -18016,32 +18809,43 @@
       <c r="CP64" t="inlineStr"/>
       <c r="CQ64" t="inlineStr"/>
       <c r="CR64" t="inlineStr"/>
-      <c r="CS64" t="n">
+      <c r="CS64" t="inlineStr">
+        <is>
+          <t>Lebanon</t>
+        </is>
+      </c>
+      <c r="CT64" t="n">
+        <v>1946</v>
+      </c>
+      <c r="CU64" t="n">
+        <v>1246456</v>
+      </c>
+      <c r="CV64" t="n">
         <v>419.7</v>
       </c>
-      <c r="CT64" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU64" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV64" t="n">
-        <v>0</v>
-      </c>
       <c r="CW64" t="n">
         <v>0</v>
       </c>
       <c r="CX64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY64" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ64" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA64" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB64" t="n">
         <v>0.1140004</v>
       </c>
-      <c r="CZ64" t="inlineStr"/>
-      <c r="DA64" t="n">
+      <c r="DC64" t="inlineStr"/>
+      <c r="DD64" t="n">
         <v>33.8333</v>
       </c>
-      <c r="DB64" t="n">
+      <c r="DE64" t="n">
         <v>35.8333</v>
       </c>
     </row>
@@ -18284,46 +19088,53 @@
       <c r="CL65" t="inlineStr"/>
       <c r="CM65" t="inlineStr"/>
       <c r="CN65" t="inlineStr"/>
-      <c r="CO65" t="n">
-        <v>2005</v>
-      </c>
-      <c r="CP65" t="n">
-        <v>6.174492630208568</v>
-      </c>
+      <c r="CO65" t="inlineStr"/>
+      <c r="CP65" t="inlineStr"/>
       <c r="CQ65" t="n">
         <v>2006</v>
       </c>
       <c r="CR65" t="n">
         <v>6.357591258451985</v>
       </c>
-      <c r="CS65" t="n">
+      <c r="CS65" t="inlineStr">
+        <is>
+          <t>Lesotho</t>
+        </is>
+      </c>
+      <c r="CT65" t="n">
+        <v>1966</v>
+      </c>
+      <c r="CU65" t="n">
+        <v>881879</v>
+      </c>
+      <c r="CV65" t="n">
         <v>620.2</v>
       </c>
-      <c r="CT65" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU65" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV65" t="n">
-        <v>0</v>
-      </c>
       <c r="CW65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX65" t="n">
         <v>0</v>
       </c>
       <c r="CY65" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ65" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA65" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB65" t="n">
         <v>0.2097619</v>
       </c>
-      <c r="CZ65" t="n">
+      <c r="DC65" t="n">
         <v>0.003</v>
       </c>
-      <c r="DA65" t="n">
+      <c r="DD65" t="n">
         <v>-29.5</v>
       </c>
-      <c r="DB65" t="n">
+      <c r="DE65" t="n">
         <v>28.5</v>
       </c>
     </row>
@@ -18582,32 +19393,43 @@
       <c r="CP66" t="inlineStr"/>
       <c r="CQ66" t="inlineStr"/>
       <c r="CR66" t="inlineStr"/>
-      <c r="CS66" t="n">
+      <c r="CS66" t="inlineStr">
+        <is>
+          <t>Libya</t>
+        </is>
+      </c>
+      <c r="CT66" t="n">
+        <v>1952</v>
+      </c>
+      <c r="CU66" t="n">
+        <v>1162480</v>
+      </c>
+      <c r="CV66" t="n">
         <v>40.3</v>
       </c>
-      <c r="CT66" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU66" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV66" t="n">
-        <v>0</v>
-      </c>
       <c r="CW66" t="n">
         <v>0</v>
       </c>
       <c r="CX66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY66" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ66" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA66" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB66" t="n">
         <v>0.1214057</v>
       </c>
-      <c r="CZ66" t="inlineStr"/>
-      <c r="DA66" t="n">
+      <c r="DC66" t="inlineStr"/>
+      <c r="DD66" t="n">
         <v>25</v>
       </c>
-      <c r="DB66" t="n">
+      <c r="DE66" t="n">
         <v>17</v>
       </c>
     </row>
@@ -18844,8 +19666,12 @@
       <c r="CH67" t="n">
         <v>1.980932211378192</v>
       </c>
-      <c r="CI67" t="inlineStr"/>
-      <c r="CJ67" t="inlineStr"/>
+      <c r="CI67" t="n">
+        <v>1960</v>
+      </c>
+      <c r="CJ67" t="n">
+        <v>4.471515417779749</v>
+      </c>
       <c r="CK67" t="n">
         <v>1970</v>
       </c>
@@ -18870,34 +19696,45 @@
       <c r="CR67" t="n">
         <v>5.664474405659157</v>
       </c>
-      <c r="CS67" t="n">
+      <c r="CS67" t="inlineStr">
+        <is>
+          <t>Madagascar</t>
+        </is>
+      </c>
+      <c r="CT67" t="n">
+        <v>1960</v>
+      </c>
+      <c r="CU67" t="n">
+        <v>5111034</v>
+      </c>
+      <c r="CV67" t="n">
         <v>116.9</v>
       </c>
-      <c r="CT67" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU67" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV67" t="n">
-        <v>0</v>
-      </c>
       <c r="CW67" t="n">
         <v>0</v>
       </c>
       <c r="CX67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY67" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ67" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA67" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB67" t="n">
         <v>0.0627486</v>
       </c>
-      <c r="CZ67" t="n">
+      <c r="DC67" t="n">
         <v>0.008</v>
       </c>
-      <c r="DA67" t="n">
+      <c r="DD67" t="n">
         <v>-20</v>
       </c>
-      <c r="DB67" t="n">
+      <c r="DE67" t="n">
         <v>47</v>
       </c>
     </row>
@@ -19134,8 +19971,12 @@
       <c r="CH68" t="n">
         <v>0.9788784161988018</v>
       </c>
-      <c r="CI68" t="inlineStr"/>
-      <c r="CJ68" t="inlineStr"/>
+      <c r="CI68" t="n">
+        <v>1965</v>
+      </c>
+      <c r="CJ68" t="n">
+        <v>4.2969491414905</v>
+      </c>
       <c r="CK68" t="n">
         <v>1975</v>
       </c>
@@ -19160,34 +20001,45 @@
       <c r="CR68" t="n">
         <v>5.157217100965378</v>
       </c>
-      <c r="CS68" t="n">
+      <c r="CS68" t="inlineStr">
+        <is>
+          <t>Malawi</t>
+        </is>
+      </c>
+      <c r="CT68" t="n">
+        <v>1964</v>
+      </c>
+      <c r="CU68" t="n">
+        <v>3997308</v>
+      </c>
+      <c r="CV68" t="n">
         <v>102.7</v>
       </c>
-      <c r="CT68" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU68" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV68" t="n">
-        <v>0</v>
-      </c>
       <c r="CW68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX68" t="n">
         <v>0</v>
       </c>
       <c r="CY68" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ68" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA68" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB68" t="n">
         <v>0.6224373</v>
       </c>
-      <c r="CZ68" t="n">
+      <c r="DC68" t="n">
         <v>0.015</v>
       </c>
-      <c r="DA68" t="n">
+      <c r="DD68" t="n">
         <v>-13.5</v>
       </c>
-      <c r="DB68" t="n">
+      <c r="DE68" t="n">
         <v>34</v>
       </c>
     </row>
@@ -19430,8 +20282,12 @@
       <c r="CH69" t="n">
         <v>1.139960864691829</v>
       </c>
-      <c r="CI69" t="inlineStr"/>
-      <c r="CJ69" t="inlineStr"/>
+      <c r="CI69" t="n">
+        <v>1960</v>
+      </c>
+      <c r="CJ69" t="n">
+        <v>6.326950665074988</v>
+      </c>
       <c r="CK69" t="n">
         <v>1970</v>
       </c>
@@ -19456,32 +20312,43 @@
       <c r="CR69" t="n">
         <v>6.613514478738699</v>
       </c>
-      <c r="CS69" t="n">
+      <c r="CS69" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="CT69" t="n">
+        <v>1958</v>
+      </c>
+      <c r="CU69" t="n">
+        <v>7562884</v>
+      </c>
+      <c r="CV69" t="n">
         <v>100.9</v>
       </c>
-      <c r="CT69" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU69" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV69" t="n">
-        <v>0</v>
-      </c>
       <c r="CW69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX69" t="n">
         <v>0</v>
       </c>
       <c r="CY69" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ69" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA69" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB69" t="n">
         <v>0.6103704</v>
       </c>
-      <c r="CZ69" t="inlineStr"/>
-      <c r="DA69" t="n">
+      <c r="DC69" t="inlineStr"/>
+      <c r="DD69" t="n">
         <v>2.5</v>
       </c>
-      <c r="DB69" t="n">
+      <c r="DE69" t="n">
         <v>112.5</v>
       </c>
     </row>
@@ -19668,32 +20535,43 @@
       <c r="CP70" t="inlineStr"/>
       <c r="CQ70" t="inlineStr"/>
       <c r="CR70" t="inlineStr"/>
-      <c r="CS70" t="n">
+      <c r="CS70" t="inlineStr">
+        <is>
+          <t>Maldives</t>
+        </is>
+      </c>
+      <c r="CT70" t="n">
+        <v>1965</v>
+      </c>
+      <c r="CU70" t="n">
+        <v>104116</v>
+      </c>
+      <c r="CV70" t="n">
         <v>1.2</v>
       </c>
-      <c r="CT70" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU70" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV70" t="n">
-        <v>0</v>
-      </c>
       <c r="CW70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX70" t="n">
         <v>0</v>
       </c>
       <c r="CY70" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ70" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA70" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB70" t="n">
         <v>0.0333333</v>
       </c>
-      <c r="CZ70" t="inlineStr"/>
-      <c r="DA70" t="n">
+      <c r="DC70" t="inlineStr"/>
+      <c r="DD70" t="n">
         <v>3.25</v>
       </c>
-      <c r="DB70" t="n">
+      <c r="DE70" t="n">
         <v>73</v>
       </c>
     </row>
@@ -19930,8 +20808,12 @@
       <c r="CH71" t="n">
         <v>1.405985862646909</v>
       </c>
-      <c r="CI71" t="inlineStr"/>
-      <c r="CJ71" t="inlineStr"/>
+      <c r="CI71" t="n">
+        <v>1960</v>
+      </c>
+      <c r="CJ71" t="n">
+        <v>4.219742837445902</v>
+      </c>
       <c r="CK71" t="n">
         <v>1975</v>
       </c>
@@ -19956,32 +20838,43 @@
       <c r="CR71" t="n">
         <v>5.678137020296613</v>
       </c>
-      <c r="CS71" t="n">
+      <c r="CS71" t="inlineStr">
+        <is>
+          <t>Mali</t>
+        </is>
+      </c>
+      <c r="CT71" t="n">
+        <v>1960</v>
+      </c>
+      <c r="CU71" t="n">
+        <v>5402549</v>
+      </c>
+      <c r="CV71" t="n">
         <v>14.7</v>
       </c>
-      <c r="CT71" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU71" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV71" t="n">
-        <v>0</v>
-      </c>
       <c r="CW71" t="n">
         <v>0</v>
       </c>
       <c r="CX71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY71" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ71" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA71" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB71" t="n">
         <v>0.8085691</v>
       </c>
-      <c r="CZ71" t="inlineStr"/>
-      <c r="DA71" t="n">
+      <c r="DC71" t="inlineStr"/>
+      <c r="DD71" t="n">
         <v>17</v>
       </c>
-      <c r="DB71" t="n">
+      <c r="DE71" t="n">
         <v>-4</v>
       </c>
     </row>
@@ -20176,30 +21069,41 @@
       <c r="CP72" t="inlineStr"/>
       <c r="CQ72" t="inlineStr"/>
       <c r="CR72" t="inlineStr"/>
-      <c r="CS72" t="n">
+      <c r="CS72" t="inlineStr">
+        <is>
+          <t>Marshall Islands</t>
+        </is>
+      </c>
+      <c r="CT72" t="n">
+        <v>1914</v>
+      </c>
+      <c r="CU72" t="n">
+        <v>55759</v>
+      </c>
+      <c r="CV72" t="n">
         <v>1.4</v>
       </c>
-      <c r="CT72" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU72" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV72" t="n">
-        <v>0</v>
-      </c>
       <c r="CW72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX72" t="n">
         <v>0</v>
       </c>
-      <c r="CY72" t="inlineStr"/>
-      <c r="CZ72" t="inlineStr"/>
+      <c r="CY72" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ72" t="n">
+        <v>0</v>
+      </c>
       <c r="DA72" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB72" t="inlineStr"/>
+      <c r="DC72" t="inlineStr"/>
+      <c r="DD72" t="n">
         <v>9</v>
       </c>
-      <c r="DB72" t="n">
+      <c r="DE72" t="n">
         <v>168</v>
       </c>
     </row>
@@ -20462,32 +21366,43 @@
       <c r="CR73" t="n">
         <v>5.64303738317757</v>
       </c>
-      <c r="CS73" t="n">
+      <c r="CS73" t="inlineStr">
+        <is>
+          <t>Mauritania</t>
+        </is>
+      </c>
+      <c r="CT73" t="n">
+        <v>1975</v>
+      </c>
+      <c r="CU73" t="n">
+        <v>1277337</v>
+      </c>
+      <c r="CV73" t="n">
         <v>11.5</v>
       </c>
-      <c r="CT73" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU73" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV73" t="n">
-        <v>0</v>
-      </c>
       <c r="CW73" t="n">
         <v>0</v>
       </c>
       <c r="CX73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY73" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ73" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA73" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB73" t="n">
         <v>0.27</v>
       </c>
-      <c r="CZ73" t="inlineStr"/>
-      <c r="DA73" t="n">
+      <c r="DC73" t="inlineStr"/>
+      <c r="DD73" t="n">
         <v>20</v>
       </c>
-      <c r="DB73" t="n">
+      <c r="DE73" t="n">
         <v>-12</v>
       </c>
     </row>
@@ -20730,8 +21645,12 @@
       <c r="CH74" t="n">
         <v>1.05698149911882</v>
       </c>
-      <c r="CI74" t="inlineStr"/>
-      <c r="CJ74" t="inlineStr"/>
+      <c r="CI74" t="n">
+        <v>1970</v>
+      </c>
+      <c r="CJ74" t="n">
+        <v>5.518769534798185</v>
+      </c>
       <c r="CK74" t="n">
         <v>1980</v>
       </c>
@@ -20756,34 +21675,45 @@
       <c r="CR74" t="n">
         <v>7.949961721140426</v>
       </c>
-      <c r="CS74" t="n">
+      <c r="CS74" t="inlineStr">
+        <is>
+          <t>Mauritius</t>
+        </is>
+      </c>
+      <c r="CT74" t="n">
+        <v>1968</v>
+      </c>
+      <c r="CU74" t="n">
+        <v>799288</v>
+      </c>
+      <c r="CV74" t="n">
         <v>94.90000000000001</v>
       </c>
-      <c r="CT74" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU74" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV74" t="n">
-        <v>0</v>
-      </c>
       <c r="CW74" t="n">
         <v>0</v>
       </c>
       <c r="CX74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY74" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ74" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA74" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB74" t="n">
         <v>0.7084848</v>
       </c>
-      <c r="CZ74" t="n">
+      <c r="DC74" t="n">
         <v>0.106</v>
       </c>
-      <c r="DA74" t="n">
+      <c r="DD74" t="n">
         <v>-20.2833</v>
       </c>
-      <c r="DB74" t="n">
+      <c r="DE74" t="n">
         <v>57.55</v>
       </c>
     </row>
@@ -21010,34 +21940,45 @@
       <c r="CP75" t="inlineStr"/>
       <c r="CQ75" t="inlineStr"/>
       <c r="CR75" t="inlineStr"/>
-      <c r="CS75" t="n">
+      <c r="CS75" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="CT75" t="n">
+        <v>1821</v>
+      </c>
+      <c r="CU75" t="n">
+        <v>6545355</v>
+      </c>
+      <c r="CV75" t="n">
         <v>173.2</v>
       </c>
-      <c r="CT75" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU75" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV75" t="n">
-        <v>0</v>
-      </c>
       <c r="CW75" t="n">
         <v>0</v>
       </c>
       <c r="CX75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY75" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ75" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA75" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB75" t="n">
         <v>0.1740741</v>
       </c>
-      <c r="CZ75" t="n">
+      <c r="DC75" t="n">
         <v>0.053</v>
       </c>
-      <c r="DA75" t="n">
+      <c r="DD75" t="n">
         <v>23</v>
       </c>
-      <c r="DB75" t="n">
+      <c r="DE75" t="n">
         <v>-102</v>
       </c>
     </row>
@@ -21224,30 +22165,41 @@
       <c r="CP76" t="inlineStr"/>
       <c r="CQ76" t="inlineStr"/>
       <c r="CR76" t="inlineStr"/>
-      <c r="CS76" t="n">
+      <c r="CS76" t="inlineStr">
+        <is>
+          <t>Micronesia (country)</t>
+        </is>
+      </c>
+      <c r="CT76" t="n">
+        <v>1899</v>
+      </c>
+      <c r="CU76" t="n">
+        <v>24417</v>
+      </c>
+      <c r="CV76" t="n">
         <v>135.3</v>
       </c>
-      <c r="CT76" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU76" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV76" t="n">
-        <v>0</v>
-      </c>
       <c r="CW76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX76" t="n">
         <v>0</v>
       </c>
-      <c r="CY76" t="inlineStr"/>
-      <c r="CZ76" t="inlineStr"/>
+      <c r="CY76" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ76" t="n">
+        <v>0</v>
+      </c>
       <c r="DA76" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB76" t="inlineStr"/>
+      <c r="DC76" t="inlineStr"/>
+      <c r="DD76" t="n">
         <v>6.9167</v>
       </c>
-      <c r="DB76" t="n">
+      <c r="DE76" t="n">
         <v>158.25</v>
       </c>
     </row>
@@ -21492,8 +22444,12 @@
       <c r="CH77" t="n">
         <v>0.6405668781370578</v>
       </c>
-      <c r="CI77" t="inlineStr"/>
-      <c r="CJ77" t="inlineStr"/>
+      <c r="CI77" t="n">
+        <v>1975</v>
+      </c>
+      <c r="CJ77" t="n">
+        <v>5.169707767987689</v>
+      </c>
       <c r="CK77" t="n">
         <v>1985</v>
       </c>
@@ -21518,34 +22474,45 @@
       <c r="CR77" t="n">
         <v>6.550000000000001</v>
       </c>
-      <c r="CS77" t="n">
+      <c r="CS77" t="inlineStr">
+        <is>
+          <t>Morocco</t>
+        </is>
+      </c>
+      <c r="CT77" t="n">
+        <v>1975</v>
+      </c>
+      <c r="CU77" t="n">
+        <v>17150789</v>
+      </c>
+      <c r="CV77" t="n">
         <v>241.3</v>
       </c>
-      <c r="CT77" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU77" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV77" t="n">
-        <v>0</v>
-      </c>
       <c r="CW77" t="n">
         <v>0</v>
       </c>
       <c r="CX77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY77" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ77" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA77" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB77" t="n">
         <v>0.3479719</v>
       </c>
-      <c r="CZ77" t="n">
+      <c r="DC77" t="n">
         <v>0.045</v>
       </c>
-      <c r="DA77" t="n">
+      <c r="DD77" t="n">
         <v>32</v>
       </c>
-      <c r="DB77" t="n">
+      <c r="DE77" t="n">
         <v>-5</v>
       </c>
     </row>
@@ -21786,12 +22753,8 @@
       <c r="CJ78" t="inlineStr"/>
       <c r="CK78" t="inlineStr"/>
       <c r="CL78" t="inlineStr"/>
-      <c r="CM78" t="n">
-        <v>2003</v>
-      </c>
-      <c r="CN78" t="n">
-        <v>5.708259383209182</v>
-      </c>
+      <c r="CM78" t="inlineStr"/>
+      <c r="CN78" t="inlineStr"/>
       <c r="CO78" t="n">
         <v>2004</v>
       </c>
@@ -21804,34 +22767,45 @@
       <c r="CR78" t="n">
         <v>5.621035031847134</v>
       </c>
-      <c r="CS78" t="n">
+      <c r="CS78" t="inlineStr">
+        <is>
+          <t>Mozambique</t>
+        </is>
+      </c>
+      <c r="CT78" t="n">
+        <v>1974</v>
+      </c>
+      <c r="CU78" t="n">
+        <v>9236094</v>
+      </c>
+      <c r="CV78" t="n">
         <v>61.2</v>
       </c>
-      <c r="CT78" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU78" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV78" t="n">
-        <v>0</v>
-      </c>
       <c r="CW78" t="n">
         <v>0</v>
       </c>
       <c r="CX78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY78" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ78" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA78" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB78" t="n">
         <v>0.7863327</v>
       </c>
-      <c r="CZ78" t="n">
+      <c r="DC78" t="n">
         <v>0.008999999999999999</v>
       </c>
-      <c r="DA78" t="n">
+      <c r="DD78" t="n">
         <v>-18.25</v>
       </c>
-      <c r="DB78" t="n">
+      <c r="DE78" t="n">
         <v>35</v>
       </c>
     </row>
@@ -22068,8 +23042,12 @@
       <c r="CH79" t="n">
         <v>1.383092712148607</v>
       </c>
-      <c r="CI79" t="inlineStr"/>
-      <c r="CJ79" t="inlineStr"/>
+      <c r="CI79" t="n">
+        <v>1950</v>
+      </c>
+      <c r="CJ79" t="n">
+        <v>5.359424106255974</v>
+      </c>
       <c r="CK79" t="n">
         <v>1960</v>
       </c>
@@ -22094,18 +23072,20 @@
       <c r="CR79" t="n">
         <v>3.535548816388415</v>
       </c>
-      <c r="CS79" t="n">
+      <c r="CS79" t="inlineStr">
+        <is>
+          <t>Myanmar</t>
+        </is>
+      </c>
+      <c r="CT79" t="n">
+        <v>1948</v>
+      </c>
+      <c r="CU79" t="n">
+        <v>17173011</v>
+      </c>
+      <c r="CV79" t="n">
         <v>198.8</v>
       </c>
-      <c r="CT79" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU79" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV79" t="n">
-        <v>1</v>
-      </c>
       <c r="CW79" t="n">
         <v>0</v>
       </c>
@@ -22113,13 +23093,22 @@
         <v>0</v>
       </c>
       <c r="CY79" t="n">
+        <v>1</v>
+      </c>
+      <c r="CZ79" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA79" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB79" t="n">
         <v>0.3839685</v>
       </c>
-      <c r="CZ79" t="inlineStr"/>
-      <c r="DA79" t="n">
+      <c r="DC79" t="inlineStr"/>
+      <c r="DD79" t="n">
         <v>22</v>
       </c>
-      <c r="DB79" t="n">
+      <c r="DE79" t="n">
         <v>98</v>
       </c>
     </row>
@@ -22370,34 +23359,45 @@
       <c r="CP80" t="inlineStr"/>
       <c r="CQ80" t="inlineStr"/>
       <c r="CR80" t="inlineStr"/>
-      <c r="CS80" t="n">
+      <c r="CS80" t="inlineStr">
+        <is>
+          <t>Namibia</t>
+        </is>
+      </c>
+      <c r="CT80" t="n">
+        <v>1920</v>
+      </c>
+      <c r="CU80" t="n">
+        <v>283647</v>
+      </c>
+      <c r="CV80" t="n">
         <v>91.3</v>
       </c>
-      <c r="CT80" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU80" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV80" t="n">
-        <v>0</v>
-      </c>
       <c r="CW80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX80" t="n">
         <v>0</v>
       </c>
       <c r="CY80" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ80" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA80" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB80" t="n">
         <v>0.7283334</v>
       </c>
-      <c r="CZ80" t="n">
+      <c r="DC80" t="n">
         <v>0.117</v>
       </c>
-      <c r="DA80" t="n">
+      <c r="DD80" t="n">
         <v>-22</v>
       </c>
-      <c r="DB80" t="n">
+      <c r="DE80" t="n">
         <v>17</v>
       </c>
     </row>
@@ -22592,20 +23592,31 @@
       <c r="CP81" t="inlineStr"/>
       <c r="CQ81" t="inlineStr"/>
       <c r="CR81" t="inlineStr"/>
-      <c r="CS81" t="n">
+      <c r="CS81" t="inlineStr">
+        <is>
+          <t>Nauru</t>
+        </is>
+      </c>
+      <c r="CT81" t="n">
+        <v>1944</v>
+      </c>
+      <c r="CU81" t="n">
+        <v>3069</v>
+      </c>
+      <c r="CV81" t="n">
         <v>31.1</v>
       </c>
-      <c r="CT81" t="inlineStr"/>
-      <c r="CU81" t="inlineStr"/>
-      <c r="CV81" t="inlineStr"/>
       <c r="CW81" t="inlineStr"/>
       <c r="CX81" t="inlineStr"/>
       <c r="CY81" t="inlineStr"/>
       <c r="CZ81" t="inlineStr"/>
-      <c r="DA81" t="n">
+      <c r="DA81" t="inlineStr"/>
+      <c r="DB81" t="inlineStr"/>
+      <c r="DC81" t="inlineStr"/>
+      <c r="DD81" t="n">
         <v>-0.5333</v>
       </c>
-      <c r="DB81" t="n">
+      <c r="DE81" t="n">
         <v>166.9167</v>
       </c>
     </row>
@@ -22856,34 +23867,45 @@
       <c r="CR82" t="n">
         <v>6.358184202070175</v>
       </c>
-      <c r="CS82" t="n">
+      <c r="CS82" t="inlineStr">
+        <is>
+          <t>New Zealand</t>
+        </is>
+      </c>
+      <c r="CT82" t="n">
+        <v>1909</v>
+      </c>
+      <c r="CU82" t="n">
+        <v>1014998</v>
+      </c>
+      <c r="CV82" t="n">
         <v>203.8</v>
       </c>
-      <c r="CT82" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU82" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV82" t="n">
-        <v>0</v>
-      </c>
       <c r="CW82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX82" t="n">
         <v>0</v>
       </c>
       <c r="CY82" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ82" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA82" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB82" t="n">
         <v>0.1475699</v>
       </c>
-      <c r="CZ82" t="n">
+      <c r="DC82" t="n">
         <v>0.659</v>
       </c>
-      <c r="DA82" t="n">
+      <c r="DD82" t="n">
         <v>-41</v>
       </c>
-      <c r="DB82" t="n">
+      <c r="DE82" t="n">
         <v>174</v>
       </c>
     </row>
@@ -23110,34 +24132,45 @@
       <c r="CP83" t="inlineStr"/>
       <c r="CQ83" t="inlineStr"/>
       <c r="CR83" t="inlineStr"/>
-      <c r="CS83" t="n">
+      <c r="CS83" t="inlineStr">
+        <is>
+          <t>Nicaragua</t>
+        </is>
+      </c>
+      <c r="CT83" t="n">
+        <v>1821</v>
+      </c>
+      <c r="CU83" t="n">
+        <v>189624</v>
+      </c>
+      <c r="CV83" t="n">
         <v>99.2</v>
       </c>
-      <c r="CT83" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU83" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV83" t="n">
-        <v>0</v>
-      </c>
       <c r="CW83" t="n">
         <v>0</v>
       </c>
       <c r="CX83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY83" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ83" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA83" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB83" t="n">
         <v>0.09917960000000001</v>
       </c>
-      <c r="CZ83" t="n">
+      <c r="DC83" t="n">
         <v>0.035</v>
       </c>
-      <c r="DA83" t="n">
+      <c r="DD83" t="n">
         <v>13</v>
       </c>
-      <c r="DB83" t="n">
+      <c r="DE83" t="n">
         <v>-85</v>
       </c>
     </row>
@@ -23374,8 +24407,12 @@
       <c r="CH84" t="n">
         <v>1.375331087112499</v>
       </c>
-      <c r="CI84" t="inlineStr"/>
-      <c r="CJ84" t="inlineStr"/>
+      <c r="CI84" t="n">
+        <v>1960</v>
+      </c>
+      <c r="CJ84" t="n">
+        <v>3.994707361578855</v>
+      </c>
       <c r="CK84" t="n">
         <v>1975</v>
       </c>
@@ -23400,32 +24437,43 @@
       <c r="CR84" t="n">
         <v>4.809948398833237</v>
       </c>
-      <c r="CS84" t="n">
+      <c r="CS84" t="inlineStr">
+        <is>
+          <t>Niger</t>
+        </is>
+      </c>
+      <c r="CT84" t="n">
+        <v>1960</v>
+      </c>
+      <c r="CU84" t="n">
+        <v>3505057</v>
+      </c>
+      <c r="CV84" t="n">
         <v>17.8</v>
       </c>
-      <c r="CT84" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU84" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV84" t="n">
-        <v>0</v>
-      </c>
       <c r="CW84" t="n">
         <v>0</v>
       </c>
       <c r="CX84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY84" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ84" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA84" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB84" t="n">
         <v>0.7329143</v>
       </c>
-      <c r="CZ84" t="inlineStr"/>
-      <c r="DA84" t="n">
+      <c r="DC84" t="inlineStr"/>
+      <c r="DD84" t="n">
         <v>16</v>
       </c>
-      <c r="DB84" t="n">
+      <c r="DE84" t="n">
         <v>8</v>
       </c>
     </row>
@@ -23662,8 +24710,12 @@
       <c r="CH85" t="n">
         <v>2.154759526780513</v>
       </c>
-      <c r="CI85" t="inlineStr"/>
-      <c r="CJ85" t="inlineStr"/>
+      <c r="CI85" t="n">
+        <v>1960</v>
+      </c>
+      <c r="CJ85" t="n">
+        <v>5.52739170617309</v>
+      </c>
       <c r="CK85" t="n">
         <v>1970</v>
       </c>
@@ -23688,32 +24740,43 @@
       <c r="CR85" t="n">
         <v>5.026901586385942</v>
       </c>
-      <c r="CS85" t="n">
+      <c r="CS85" t="inlineStr">
+        <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="CT85" t="n">
+        <v>1960</v>
+      </c>
+      <c r="CU85" t="n">
+        <v>45053787</v>
+      </c>
+      <c r="CV85" t="n">
         <v>31.2</v>
       </c>
-      <c r="CT85" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU85" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV85" t="n">
-        <v>0</v>
-      </c>
       <c r="CW85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX85" t="n">
         <v>0</v>
       </c>
       <c r="CY85" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ85" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA85" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB85" t="n">
         <v>0.8567090000000001</v>
       </c>
-      <c r="CZ85" t="inlineStr"/>
-      <c r="DA85" t="n">
+      <c r="DC85" t="inlineStr"/>
+      <c r="DD85" t="n">
         <v>10</v>
       </c>
-      <c r="DB85" t="n">
+      <c r="DE85" t="n">
         <v>8</v>
       </c>
     </row>
@@ -23950,8 +25013,12 @@
       <c r="CH86" t="n">
         <v>1.650823648046713</v>
       </c>
-      <c r="CI86" t="inlineStr"/>
-      <c r="CJ86" t="inlineStr"/>
+      <c r="CI86" t="n">
+        <v>1950</v>
+      </c>
+      <c r="CJ86" t="n">
+        <v>4.883720275577447</v>
+      </c>
       <c r="CK86" t="n">
         <v>1960</v>
       </c>
@@ -23976,32 +25043,43 @@
       <c r="CR86" t="n">
         <v>5.065541852186771</v>
       </c>
-      <c r="CS86" t="n">
+      <c r="CS86" t="inlineStr">
+        <is>
+          <t>Pakistan</t>
+        </is>
+      </c>
+      <c r="CT86" t="n">
+        <v>1947</v>
+      </c>
+      <c r="CU86" t="n">
+        <v>35549766</v>
+      </c>
+      <c r="CV86" t="n">
         <v>194.9</v>
       </c>
-      <c r="CT86" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU86" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV86" t="n">
-        <v>0</v>
-      </c>
       <c r="CW86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX86" t="n">
         <v>0</v>
       </c>
       <c r="CY86" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ86" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA86" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB86" t="n">
         <v>0.6215599000000001</v>
       </c>
-      <c r="CZ86" t="inlineStr"/>
-      <c r="DA86" t="n">
+      <c r="DC86" t="inlineStr"/>
+      <c r="DD86" t="n">
         <v>30</v>
       </c>
-      <c r="DB86" t="n">
+      <c r="DE86" t="n">
         <v>70</v>
       </c>
     </row>
@@ -24196,20 +25274,31 @@
       <c r="CP87" t="inlineStr"/>
       <c r="CQ87" t="inlineStr"/>
       <c r="CR87" t="inlineStr"/>
-      <c r="CS87" t="n">
+      <c r="CS87" t="inlineStr">
+        <is>
+          <t>Palau</t>
+        </is>
+      </c>
+      <c r="CT87" t="n">
+        <v>1914</v>
+      </c>
+      <c r="CU87" t="n">
+        <v>6160</v>
+      </c>
+      <c r="CV87" t="n">
         <v>47.5</v>
       </c>
-      <c r="CT87" t="inlineStr"/>
-      <c r="CU87" t="inlineStr"/>
-      <c r="CV87" t="inlineStr"/>
       <c r="CW87" t="inlineStr"/>
       <c r="CX87" t="inlineStr"/>
       <c r="CY87" t="inlineStr"/>
       <c r="CZ87" t="inlineStr"/>
-      <c r="DA87" t="n">
+      <c r="DA87" t="inlineStr"/>
+      <c r="DB87" t="inlineStr"/>
+      <c r="DC87" t="inlineStr"/>
+      <c r="DD87" t="n">
         <v>7.5</v>
       </c>
-      <c r="DB87" t="n">
+      <c r="DE87" t="n">
         <v>134.5</v>
       </c>
     </row>
@@ -24436,34 +25525,45 @@
       <c r="CP88" t="inlineStr"/>
       <c r="CQ88" t="inlineStr"/>
       <c r="CR88" t="inlineStr"/>
-      <c r="CS88" t="n">
+      <c r="CS88" t="inlineStr">
+        <is>
+          <t>Panama</t>
+        </is>
+      </c>
+      <c r="CT88" t="n">
+        <v>1820</v>
+      </c>
+      <c r="CU88" t="n">
+        <v>87391</v>
+      </c>
+      <c r="CV88" t="n">
         <v>154</v>
       </c>
-      <c r="CT88" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU88" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV88" t="n">
-        <v>0</v>
-      </c>
       <c r="CW88" t="n">
         <v>0</v>
       </c>
       <c r="CX88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY88" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ88" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA88" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB88" t="n">
         <v>0.1908333</v>
       </c>
-      <c r="CZ88" t="n">
+      <c r="DC88" t="n">
         <v>0.217</v>
       </c>
-      <c r="DA88" t="n">
+      <c r="DD88" t="n">
         <v>9</v>
       </c>
-      <c r="DB88" t="n">
+      <c r="DE88" t="n">
         <v>-80</v>
       </c>
     </row>
@@ -24718,32 +25818,43 @@
       <c r="CR89" t="n">
         <v>5.718045649604398</v>
       </c>
-      <c r="CS89" t="n">
+      <c r="CS89" t="inlineStr">
+        <is>
+          <t>Papua New Guinea</t>
+        </is>
+      </c>
+      <c r="CT89" t="n">
+        <v>1912</v>
+      </c>
+      <c r="CU89" t="n">
+        <v>783339</v>
+      </c>
+      <c r="CV89" t="n">
         <v>158.9</v>
       </c>
-      <c r="CT89" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU89" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV89" t="n">
-        <v>0</v>
-      </c>
       <c r="CW89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX89" t="n">
         <v>0</v>
       </c>
       <c r="CY89" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ89" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA89" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB89" t="n">
         <v>0.8027273</v>
       </c>
-      <c r="CZ89" t="inlineStr"/>
-      <c r="DA89" t="n">
+      <c r="DC89" t="inlineStr"/>
+      <c r="DD89" t="n">
         <v>-6</v>
       </c>
-      <c r="DB89" t="n">
+      <c r="DE89" t="n">
         <v>147</v>
       </c>
     </row>
@@ -24970,34 +26081,45 @@
       <c r="CP90" t="inlineStr"/>
       <c r="CQ90" t="inlineStr"/>
       <c r="CR90" t="inlineStr"/>
-      <c r="CS90" t="n">
+      <c r="CS90" t="inlineStr">
+        <is>
+          <t>Paraguay</t>
+        </is>
+      </c>
+      <c r="CT90" t="n">
+        <v>1811</v>
+      </c>
+      <c r="CU90" t="n">
+        <v>199864</v>
+      </c>
+      <c r="CV90" t="n">
         <v>24.5</v>
       </c>
-      <c r="CT90" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU90" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV90" t="n">
-        <v>0</v>
-      </c>
       <c r="CW90" t="n">
         <v>0</v>
       </c>
       <c r="CX90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY90" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ90" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA90" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB90" t="n">
         <v>0.4111111</v>
       </c>
-      <c r="CZ90" t="n">
+      <c r="DC90" t="n">
         <v>0.08</v>
       </c>
-      <c r="DA90" t="n">
+      <c r="DD90" t="n">
         <v>-23</v>
       </c>
-      <c r="DB90" t="n">
+      <c r="DE90" t="n">
         <v>-58</v>
       </c>
     </row>
@@ -25224,34 +26346,45 @@
       <c r="CP91" t="inlineStr"/>
       <c r="CQ91" t="inlineStr"/>
       <c r="CR91" t="inlineStr"/>
-      <c r="CS91" t="n">
+      <c r="CS91" t="inlineStr">
+        <is>
+          <t>Peru</t>
+        </is>
+      </c>
+      <c r="CT91" t="n">
+        <v>1823</v>
+      </c>
+      <c r="CU91" t="n">
+        <v>1333871</v>
+      </c>
+      <c r="CV91" t="n">
         <v>134.7</v>
       </c>
-      <c r="CT91" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU91" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV91" t="n">
-        <v>0</v>
-      </c>
       <c r="CW91" t="n">
         <v>0</v>
       </c>
       <c r="CX91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY91" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ91" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA91" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB91" t="n">
         <v>0.4315909</v>
       </c>
-      <c r="CZ91" t="n">
+      <c r="DC91" t="n">
         <v>0.044</v>
       </c>
-      <c r="DA91" t="n">
+      <c r="DD91" t="n">
         <v>-10</v>
       </c>
-      <c r="DB91" t="n">
+      <c r="DE91" t="n">
         <v>-76</v>
       </c>
     </row>
@@ -25498,34 +26631,45 @@
       <c r="CP92" t="inlineStr"/>
       <c r="CQ92" t="inlineStr"/>
       <c r="CR92" t="inlineStr"/>
-      <c r="CS92" t="n">
+      <c r="CS92" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="CT92" t="n">
+        <v>1898</v>
+      </c>
+      <c r="CU92" t="n">
+        <v>6483342</v>
+      </c>
+      <c r="CV92" t="n">
         <v>202.8</v>
       </c>
-      <c r="CT92" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU92" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV92" t="n">
-        <v>0</v>
-      </c>
       <c r="CW92" t="n">
         <v>0</v>
       </c>
       <c r="CX92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY92" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ92" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA92" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB92" t="n">
         <v>0.7238207</v>
       </c>
-      <c r="CZ92" t="n">
+      <c r="DC92" t="n">
         <v>0.005</v>
       </c>
-      <c r="DA92" t="n">
+      <c r="DD92" t="n">
         <v>13</v>
       </c>
-      <c r="DB92" t="n">
+      <c r="DE92" t="n">
         <v>122</v>
       </c>
     </row>
@@ -25776,30 +26920,41 @@
       <c r="CR93" t="n">
         <v>7.159185714285715</v>
       </c>
-      <c r="CS93" t="n">
+      <c r="CS93" t="inlineStr">
+        <is>
+          <t>Qatar</t>
+        </is>
+      </c>
+      <c r="CT93" t="n">
+        <v>1970</v>
+      </c>
+      <c r="CU93" t="n">
+        <v>116370</v>
+      </c>
+      <c r="CV93" t="n">
         <v>18.1</v>
       </c>
-      <c r="CT93" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU93" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV93" t="n">
-        <v>0</v>
-      </c>
       <c r="CW93" t="n">
         <v>0</v>
       </c>
       <c r="CX93" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY93" t="inlineStr"/>
-      <c r="CZ93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="CY93" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ93" t="n">
+        <v>0</v>
+      </c>
       <c r="DA93" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB93" t="inlineStr"/>
+      <c r="DC93" t="inlineStr"/>
+      <c r="DD93" t="n">
         <v>25.5</v>
       </c>
-      <c r="DB93" t="n">
+      <c r="DE93" t="n">
         <v>51.25</v>
       </c>
     </row>
@@ -26044,8 +27199,12 @@
       <c r="CH94" t="n">
         <v>1.637720375415212</v>
       </c>
-      <c r="CI94" t="inlineStr"/>
-      <c r="CJ94" t="inlineStr"/>
+      <c r="CI94" t="n">
+        <v>1965</v>
+      </c>
+      <c r="CJ94" t="n">
+        <v>4.063821354301476</v>
+      </c>
       <c r="CK94" t="n">
         <v>1975</v>
       </c>
@@ -26070,34 +27229,45 @@
       <c r="CR94" t="n">
         <v>5.922911520627109</v>
       </c>
-      <c r="CS94" t="n">
+      <c r="CS94" t="inlineStr">
+        <is>
+          <t>Rwanda</t>
+        </is>
+      </c>
+      <c r="CT94" t="n">
+        <v>1962</v>
+      </c>
+      <c r="CU94" t="n">
+        <v>3186019</v>
+      </c>
+      <c r="CV94" t="n">
         <v>330.9</v>
       </c>
-      <c r="CT94" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU94" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV94" t="n">
-        <v>0</v>
-      </c>
       <c r="CW94" t="n">
         <v>0</v>
       </c>
       <c r="CX94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY94" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ94" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA94" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB94" t="n">
         <v>0.0608621</v>
       </c>
-      <c r="CZ94" t="n">
+      <c r="DC94" t="n">
         <v>0.001</v>
       </c>
-      <c r="DA94" t="n">
+      <c r="DD94" t="n">
         <v>-2</v>
       </c>
-      <c r="DB94" t="n">
+      <c r="DE94" t="n">
         <v>30</v>
       </c>
     </row>
@@ -26292,20 +27462,22 @@
       <c r="CP95" t="inlineStr"/>
       <c r="CQ95" t="inlineStr"/>
       <c r="CR95" t="inlineStr"/>
-      <c r="CS95" t="n">
+      <c r="CS95" t="inlineStr">
+        <is>
+          <t>Samoa</t>
+        </is>
+      </c>
+      <c r="CT95" t="n">
+        <v>1920</v>
+      </c>
+      <c r="CU95" t="n">
+        <v>39583</v>
+      </c>
+      <c r="CV95" t="n">
         <v>167.7</v>
       </c>
-      <c r="CT95" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU95" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV95" t="n">
-        <v>0</v>
-      </c>
       <c r="CW95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX95" t="n">
         <v>0</v>
@@ -26313,11 +27485,20 @@
       <c r="CY95" t="n">
         <v>0</v>
       </c>
-      <c r="CZ95" t="inlineStr"/>
+      <c r="CZ95" t="n">
+        <v>0</v>
+      </c>
       <c r="DA95" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB95" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC95" t="inlineStr"/>
+      <c r="DD95" t="n">
         <v>-13.5833</v>
       </c>
-      <c r="DB95" t="n">
+      <c r="DE95" t="n">
         <v>-172.3333</v>
       </c>
     </row>
@@ -26504,34 +27685,45 @@
       <c r="CP96" t="inlineStr"/>
       <c r="CQ96" t="inlineStr"/>
       <c r="CR96" t="inlineStr"/>
-      <c r="CS96" t="n">
+      <c r="CS96" t="inlineStr">
+        <is>
+          <t>Sao Tome and Principe</t>
+        </is>
+      </c>
+      <c r="CT96" t="n">
+        <v>1975</v>
+      </c>
+      <c r="CU96" t="n">
+        <v>86723</v>
+      </c>
+      <c r="CV96" t="n">
         <v>234.7</v>
       </c>
-      <c r="CT96" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU96" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV96" t="n">
-        <v>0</v>
-      </c>
       <c r="CW96" t="n">
         <v>0</v>
       </c>
       <c r="CX96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY96" t="n">
         <v>0</v>
       </c>
       <c r="CZ96" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA96" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB96" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC96" t="n">
         <v>0.019</v>
       </c>
-      <c r="DA96" t="n">
-        <v>1</v>
-      </c>
-      <c r="DB96" t="n">
+      <c r="DD96" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE96" t="n">
         <v>7</v>
       </c>
     </row>
@@ -26774,8 +27966,12 @@
       <c r="CH97" t="n">
         <v>1.199832065783426</v>
       </c>
-      <c r="CI97" t="inlineStr"/>
-      <c r="CJ97" t="inlineStr"/>
+      <c r="CI97" t="n">
+        <v>1960</v>
+      </c>
+      <c r="CJ97" t="n">
+        <v>4.070551224540947</v>
+      </c>
       <c r="CK97" t="n">
         <v>1970</v>
       </c>
@@ -26800,34 +27996,45 @@
       <c r="CR97" t="n">
         <v>5.751477854890338</v>
       </c>
-      <c r="CS97" t="n">
+      <c r="CS97" t="inlineStr">
+        <is>
+          <t>Senegal</t>
+        </is>
+      </c>
+      <c r="CT97" t="n">
+        <v>1960</v>
+      </c>
+      <c r="CU97" t="n">
+        <v>3340901</v>
+      </c>
+      <c r="CV97" t="n">
         <v>24.4</v>
       </c>
-      <c r="CT97" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU97" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV97" t="n">
-        <v>0</v>
-      </c>
       <c r="CW97" t="n">
         <v>0</v>
       </c>
       <c r="CX97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY97" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ97" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA97" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB97" t="n">
         <v>0.7788682</v>
       </c>
-      <c r="CZ97" t="n">
+      <c r="DC97" t="n">
         <v>0.012</v>
       </c>
-      <c r="DA97" t="n">
+      <c r="DD97" t="n">
         <v>14</v>
       </c>
-      <c r="DB97" t="n">
+      <c r="DE97" t="n">
         <v>-14</v>
       </c>
     </row>
@@ -27088,32 +28295,43 @@
       <c r="CR98" t="n">
         <v>7.569202279202279</v>
       </c>
-      <c r="CS98" t="n">
+      <c r="CS98" t="inlineStr">
+        <is>
+          <t>Seychelles</t>
+        </is>
+      </c>
+      <c r="CT98" t="n">
+        <v>1976</v>
+      </c>
+      <c r="CU98" t="n">
+        <v>62762</v>
+      </c>
+      <c r="CV98" t="n">
         <v>488.5</v>
       </c>
-      <c r="CT98" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU98" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV98" t="n">
-        <v>0</v>
-      </c>
       <c r="CW98" t="n">
         <v>0</v>
       </c>
       <c r="CX98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY98" t="n">
         <v>0</v>
       </c>
-      <c r="CZ98" t="inlineStr"/>
+      <c r="CZ98" t="n">
+        <v>0</v>
+      </c>
       <c r="DA98" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB98" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC98" t="inlineStr"/>
+      <c r="DD98" t="n">
         <v>-4.5833</v>
       </c>
-      <c r="DB98" t="n">
+      <c r="DE98" t="n">
         <v>55.6667</v>
       </c>
     </row>
@@ -27350,8 +28568,12 @@
       <c r="CH99" t="n">
         <v>1.570026013608198</v>
       </c>
-      <c r="CI99" t="inlineStr"/>
-      <c r="CJ99" t="inlineStr"/>
+      <c r="CI99" t="n">
+        <v>1965</v>
+      </c>
+      <c r="CJ99" t="n">
+        <v>5.293559782152108</v>
+      </c>
       <c r="CK99" t="n">
         <v>1975</v>
       </c>
@@ -27376,32 +28598,43 @@
       <c r="CR99" t="n">
         <v>4.685540322275057</v>
       </c>
-      <c r="CS99" t="n">
+      <c r="CS99" t="inlineStr">
+        <is>
+          <t>Sierra Leone</t>
+        </is>
+      </c>
+      <c r="CT99" t="n">
+        <v>1961</v>
+      </c>
+      <c r="CU99" t="n">
+        <v>2304229</v>
+      </c>
+      <c r="CV99" t="n">
         <v>49.8</v>
       </c>
-      <c r="CT99" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU99" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV99" t="n">
-        <v>0</v>
-      </c>
       <c r="CW99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX99" t="n">
         <v>0</v>
       </c>
       <c r="CY99" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ99" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA99" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB99" t="n">
         <v>0.8129566</v>
       </c>
-      <c r="CZ99" t="inlineStr"/>
-      <c r="DA99" t="n">
+      <c r="DC99" t="inlineStr"/>
+      <c r="DD99" t="n">
         <v>8.5</v>
       </c>
-      <c r="DB99" t="n">
+      <c r="DE99" t="n">
         <v>-11.5</v>
       </c>
     </row>
@@ -27638,8 +28871,12 @@
       <c r="CH100" t="n">
         <v>0.8975499087124499</v>
       </c>
-      <c r="CI100" t="inlineStr"/>
-      <c r="CJ100" t="inlineStr"/>
+      <c r="CI100" t="n">
+        <v>1965</v>
+      </c>
+      <c r="CJ100" t="n">
+        <v>7.613497170739796</v>
+      </c>
       <c r="CK100" t="n">
         <v>1975</v>
       </c>
@@ -27664,32 +28901,43 @@
       <c r="CR100" t="n">
         <v>8.558946111763582</v>
       </c>
-      <c r="CS100" t="n">
+      <c r="CS100" t="inlineStr">
+        <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="CT100" t="n">
+        <v>1961</v>
+      </c>
+      <c r="CU100" t="n">
+        <v>1670470</v>
+      </c>
+      <c r="CV100" t="n">
         <v>1.6</v>
       </c>
-      <c r="CT100" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU100" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV100" t="n">
-        <v>0</v>
-      </c>
       <c r="CW100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX100" t="n">
         <v>0</v>
       </c>
       <c r="CY100" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ100" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA100" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB100" t="n">
         <v>0.3215287</v>
       </c>
-      <c r="CZ100" t="inlineStr"/>
-      <c r="DA100" t="n">
+      <c r="DC100" t="inlineStr"/>
+      <c r="DD100" t="n">
         <v>1.3667</v>
       </c>
-      <c r="DB100" t="n">
+      <c r="DE100" t="n">
         <v>103.8</v>
       </c>
     </row>
@@ -27884,32 +29132,43 @@
       <c r="CP101" t="inlineStr"/>
       <c r="CQ101" t="inlineStr"/>
       <c r="CR101" t="inlineStr"/>
-      <c r="CS101" t="n">
+      <c r="CS101" t="inlineStr">
+        <is>
+          <t>Solomon Islands</t>
+        </is>
+      </c>
+      <c r="CT101" t="n">
+        <v>1978</v>
+      </c>
+      <c r="CU101" t="n">
+        <v>222040</v>
+      </c>
+      <c r="CV101" t="n">
         <v>154</v>
       </c>
-      <c r="CT101" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU101" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV101" t="n">
-        <v>0</v>
-      </c>
       <c r="CW101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX101" t="n">
         <v>0</v>
       </c>
       <c r="CY101" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ101" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA101" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB101" t="n">
         <v>0.5714286</v>
       </c>
-      <c r="CZ101" t="inlineStr"/>
-      <c r="DA101" t="n">
+      <c r="DC101" t="inlineStr"/>
+      <c r="DD101" t="n">
         <v>-8</v>
       </c>
-      <c r="DB101" t="n">
+      <c r="DE101" t="n">
         <v>159</v>
       </c>
     </row>
@@ -28150,32 +29409,43 @@
       <c r="CP102" t="inlineStr"/>
       <c r="CQ102" t="inlineStr"/>
       <c r="CR102" t="inlineStr"/>
-      <c r="CS102" t="n">
+      <c r="CS102" t="inlineStr">
+        <is>
+          <t>Somalia</t>
+        </is>
+      </c>
+      <c r="CT102" t="n">
+        <v>1956</v>
+      </c>
+      <c r="CU102" t="n">
+        <v>2598374</v>
+      </c>
+      <c r="CV102" t="n">
         <v>65</v>
       </c>
-      <c r="CT102" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU102" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV102" t="n">
-        <v>0</v>
-      </c>
       <c r="CW102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX102" t="n">
         <v>0</v>
       </c>
       <c r="CY102" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ102" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA102" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB102" t="n">
         <v>0.07911600000000001</v>
       </c>
-      <c r="CZ102" t="inlineStr"/>
-      <c r="DA102" t="n">
+      <c r="DC102" t="inlineStr"/>
+      <c r="DD102" t="n">
         <v>10</v>
       </c>
-      <c r="DB102" t="n">
+      <c r="DE102" t="n">
         <v>49</v>
       </c>
     </row>
@@ -28436,34 +29706,45 @@
       <c r="CR103" t="n">
         <v>4.924351086240167</v>
       </c>
-      <c r="CS103" t="n">
+      <c r="CS103" t="inlineStr">
+        <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="CT103" t="n">
+        <v>1912</v>
+      </c>
+      <c r="CU103" t="n">
+        <v>6295888</v>
+      </c>
+      <c r="CV103" t="n">
         <v>176.1</v>
       </c>
-      <c r="CT103" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU103" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV103" t="n">
-        <v>0</v>
-      </c>
       <c r="CW103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX103" t="n">
         <v>0</v>
       </c>
       <c r="CY103" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ103" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA103" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB103" t="n">
         <v>0.8309818</v>
       </c>
-      <c r="CZ103" t="n">
+      <c r="DC103" t="n">
         <v>0.099</v>
       </c>
-      <c r="DA103" t="n">
+      <c r="DD103" t="n">
         <v>-29</v>
       </c>
-      <c r="DB103" t="n">
+      <c r="DE103" t="n">
         <v>24</v>
       </c>
     </row>
@@ -28706,8 +29987,12 @@
       <c r="CH104" t="n">
         <v>1.414528375810781</v>
       </c>
-      <c r="CI104" t="inlineStr"/>
-      <c r="CJ104" t="inlineStr"/>
+      <c r="CI104" t="n">
+        <v>1950</v>
+      </c>
+      <c r="CJ104" t="n">
+        <v>7.222962653824622</v>
+      </c>
       <c r="CK104" t="n">
         <v>1960</v>
       </c>
@@ -28732,32 +30017,43 @@
       <c r="CR104" t="n">
         <v>5.697848793255457</v>
       </c>
-      <c r="CS104" t="n">
+      <c r="CS104" t="inlineStr">
+        <is>
+          <t>Sri Lanka</t>
+        </is>
+      </c>
+      <c r="CT104" t="n">
+        <v>1948</v>
+      </c>
+      <c r="CU104" t="n">
+        <v>7593333</v>
+      </c>
+      <c r="CV104" t="n">
         <v>65</v>
       </c>
-      <c r="CT104" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU104" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV104" t="n">
-        <v>0</v>
-      </c>
       <c r="CW104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX104" t="n">
         <v>0</v>
       </c>
       <c r="CY104" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ104" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA104" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB104" t="n">
         <v>0.3257469</v>
       </c>
-      <c r="CZ104" t="inlineStr"/>
-      <c r="DA104" t="n">
+      <c r="DC104" t="inlineStr"/>
+      <c r="DD104" t="n">
         <v>7</v>
       </c>
-      <c r="DB104" t="n">
+      <c r="DE104" t="n">
         <v>81</v>
       </c>
     </row>
@@ -28944,20 +30240,22 @@
       <c r="CP105" t="inlineStr"/>
       <c r="CQ105" t="inlineStr"/>
       <c r="CR105" t="inlineStr"/>
-      <c r="CS105" t="n">
+      <c r="CS105" t="inlineStr">
+        <is>
+          <t>Saint Kitts and Nevis</t>
+        </is>
+      </c>
+      <c r="CT105" t="n">
+        <v>1975</v>
+      </c>
+      <c r="CU105" t="n">
+        <v>43628</v>
+      </c>
+      <c r="CV105" t="n">
         <v>0.6</v>
       </c>
-      <c r="CT105" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU105" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV105" t="n">
-        <v>0</v>
-      </c>
       <c r="CW105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX105" t="n">
         <v>0</v>
@@ -28966,12 +30264,21 @@
         <v>0</v>
       </c>
       <c r="CZ105" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA105" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB105" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC105" t="n">
         <v>0.231</v>
       </c>
-      <c r="DA105" t="n">
+      <c r="DD105" t="n">
         <v>17.3333</v>
       </c>
-      <c r="DB105" t="n">
+      <c r="DE105" t="n">
         <v>-62.75</v>
       </c>
     </row>
@@ -29164,34 +30471,45 @@
       <c r="CP106" t="inlineStr"/>
       <c r="CQ106" t="inlineStr"/>
       <c r="CR106" t="inlineStr"/>
-      <c r="CS106" t="n">
+      <c r="CS106" t="inlineStr">
+        <is>
+          <t>Saint Lucia</t>
+        </is>
+      </c>
+      <c r="CT106" t="n">
+        <v>1973</v>
+      </c>
+      <c r="CU106" t="n">
+        <v>107512</v>
+      </c>
+      <c r="CV106" t="n">
         <v>214.7</v>
       </c>
-      <c r="CT106" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU106" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV106" t="n">
-        <v>0</v>
-      </c>
       <c r="CW106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX106" t="n">
         <v>0</v>
       </c>
       <c r="CY106" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ106" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA106" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB106" t="n">
         <v>0.5833333000000001</v>
       </c>
-      <c r="CZ106" t="n">
+      <c r="DC106" t="n">
         <v>0.158</v>
       </c>
-      <c r="DA106" t="n">
+      <c r="DD106" t="n">
         <v>13.8833</v>
       </c>
-      <c r="DB106" t="n">
+      <c r="DE106" t="n">
         <v>-61.1333</v>
       </c>
     </row>
@@ -29378,20 +30696,22 @@
       <c r="CP107" t="inlineStr"/>
       <c r="CQ107" t="inlineStr"/>
       <c r="CR107" t="inlineStr"/>
-      <c r="CS107" t="n">
+      <c r="CS107" t="inlineStr">
+        <is>
+          <t>Saint Vincent and the Grenadines</t>
+        </is>
+      </c>
+      <c r="CT107" t="n">
+        <v>1974</v>
+      </c>
+      <c r="CU107" t="n">
+        <v>99577</v>
+      </c>
+      <c r="CV107" t="n">
         <v>307.1</v>
       </c>
-      <c r="CT107" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU107" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV107" t="n">
-        <v>0</v>
-      </c>
       <c r="CW107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX107" t="n">
         <v>0</v>
@@ -29400,12 +30720,21 @@
         <v>0</v>
       </c>
       <c r="CZ107" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA107" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB107" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC107" t="n">
         <v>0.099</v>
       </c>
-      <c r="DA107" t="n">
+      <c r="DD107" t="n">
         <v>13.25</v>
       </c>
-      <c r="DB107" t="n">
+      <c r="DE107" t="n">
         <v>-61.2</v>
       </c>
     </row>
@@ -29652,32 +30981,43 @@
       <c r="CP108" t="inlineStr"/>
       <c r="CQ108" t="inlineStr"/>
       <c r="CR108" t="inlineStr"/>
-      <c r="CS108" t="n">
+      <c r="CS108" t="inlineStr">
+        <is>
+          <t>Sudan</t>
+        </is>
+      </c>
+      <c r="CT108" t="n">
+        <v>1956</v>
+      </c>
+      <c r="CU108" t="n">
+        <v>7401595</v>
+      </c>
+      <c r="CV108" t="n">
         <v>44.2</v>
       </c>
-      <c r="CT108" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU108" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV108" t="n">
-        <v>0</v>
-      </c>
       <c r="CW108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX108" t="n">
         <v>0</v>
       </c>
       <c r="CY108" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ108" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA108" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB108" t="n">
         <v>0.51218</v>
       </c>
-      <c r="CZ108" t="inlineStr"/>
-      <c r="DA108" t="n">
+      <c r="DC108" t="inlineStr"/>
+      <c r="DD108" t="n">
         <v>15</v>
       </c>
-      <c r="DB108" t="n">
+      <c r="DE108" t="n">
         <v>30</v>
       </c>
     </row>
@@ -29914,8 +31254,12 @@
       <c r="CH109" t="n">
         <v>1.249613006654829</v>
       </c>
-      <c r="CI109" t="inlineStr"/>
-      <c r="CJ109" t="inlineStr"/>
+      <c r="CI109" t="n">
+        <v>1965</v>
+      </c>
+      <c r="CJ109" t="n">
+        <v>5.74656116570533</v>
+      </c>
       <c r="CK109" t="inlineStr"/>
       <c r="CL109" t="inlineStr"/>
       <c r="CM109" t="inlineStr"/>
@@ -29928,34 +31272,45 @@
       <c r="CR109" t="n">
         <v>6.549853223273812</v>
       </c>
-      <c r="CS109" t="n">
+      <c r="CS109" t="inlineStr">
+        <is>
+          <t>Suriname</t>
+        </is>
+      </c>
+      <c r="CT109" t="n">
+        <v>1964</v>
+      </c>
+      <c r="CU109" t="n">
+        <v>309049</v>
+      </c>
+      <c r="CV109" t="n">
         <v>30.7</v>
       </c>
-      <c r="CT109" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU109" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV109" t="n">
-        <v>0</v>
-      </c>
       <c r="CW109" t="n">
         <v>0</v>
       </c>
       <c r="CX109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY109" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ109" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA109" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB109" t="n">
         <v>0.75</v>
       </c>
-      <c r="CZ109" t="n">
+      <c r="DC109" t="n">
         <v>0.04</v>
       </c>
-      <c r="DA109" t="n">
+      <c r="DD109" t="n">
         <v>4</v>
       </c>
-      <c r="DB109" t="n">
+      <c r="DE109" t="n">
         <v>-56</v>
       </c>
     </row>
@@ -30206,20 +31561,22 @@
       <c r="CR110" t="n">
         <v>6.068504402079724</v>
       </c>
-      <c r="CS110" t="n">
+      <c r="CS110" t="inlineStr">
+        <is>
+          <t>Eswatini</t>
+        </is>
+      </c>
+      <c r="CT110" t="n">
+        <v>1968</v>
+      </c>
+      <c r="CU110" t="n">
+        <v>419154</v>
+      </c>
+      <c r="CV110" t="n">
         <v>306.3</v>
       </c>
-      <c r="CT110" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU110" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV110" t="n">
-        <v>0</v>
-      </c>
       <c r="CW110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX110" t="n">
         <v>0</v>
@@ -30228,12 +31585,21 @@
         <v>0</v>
       </c>
       <c r="CZ110" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA110" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB110" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC110" t="n">
         <v>0.021</v>
       </c>
-      <c r="DA110" t="n">
+      <c r="DD110" t="n">
         <v>-26.5</v>
       </c>
-      <c r="DB110" t="n">
+      <c r="DE110" t="n">
         <v>31.5</v>
       </c>
     </row>
@@ -30470,8 +31836,12 @@
       <c r="CH111" t="n">
         <v>1.390324870931532</v>
       </c>
-      <c r="CI111" t="inlineStr"/>
-      <c r="CJ111" t="inlineStr"/>
+      <c r="CI111" t="n">
+        <v>1950</v>
+      </c>
+      <c r="CJ111" t="n">
+        <v>5.755677669126418</v>
+      </c>
       <c r="CK111" t="n">
         <v>1955</v>
       </c>
@@ -30496,32 +31866,43 @@
       <c r="CR111" t="n">
         <v>3.259050086320483</v>
       </c>
-      <c r="CS111" t="n">
+      <c r="CS111" t="inlineStr">
+        <is>
+          <t>Syria</t>
+        </is>
+      </c>
+      <c r="CT111" t="n">
+        <v>1944</v>
+      </c>
+      <c r="CU111" t="n">
+        <v>3233459</v>
+      </c>
+      <c r="CV111" t="n">
         <v>75.59999999999999</v>
       </c>
-      <c r="CT111" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU111" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV111" t="n">
-        <v>0</v>
-      </c>
       <c r="CW111" t="n">
         <v>0</v>
       </c>
       <c r="CX111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY111" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ111" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA111" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB111" t="n">
         <v>0.094792</v>
       </c>
-      <c r="CZ111" t="inlineStr"/>
-      <c r="DA111" t="n">
+      <c r="DC111" t="inlineStr"/>
+      <c r="DD111" t="n">
         <v>35</v>
       </c>
-      <c r="DB111" t="n">
+      <c r="DE111" t="n">
         <v>38</v>
       </c>
     </row>
@@ -30766,8 +32147,12 @@
       <c r="CH112" t="n">
         <v>1.167187268281644</v>
       </c>
-      <c r="CI112" t="inlineStr"/>
-      <c r="CJ112" t="inlineStr"/>
+      <c r="CI112" t="n">
+        <v>1965</v>
+      </c>
+      <c r="CJ112" t="n">
+        <v>4.097898877958047</v>
+      </c>
       <c r="CK112" t="n">
         <v>1975</v>
       </c>
@@ -30792,34 +32177,45 @@
       <c r="CR112" t="n">
         <v>6.218894813536878</v>
       </c>
-      <c r="CS112" t="n">
+      <c r="CS112" t="inlineStr">
+        <is>
+          <t>Tanzania</t>
+        </is>
+      </c>
+      <c r="CT112" t="n">
+        <v>1961</v>
+      </c>
+      <c r="CU112" t="n">
+        <v>10187888</v>
+      </c>
+      <c r="CV112" t="n">
         <v>67.7</v>
       </c>
-      <c r="CT112" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU112" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV112" t="n">
-        <v>0</v>
-      </c>
       <c r="CW112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX112" t="n">
         <v>0</v>
       </c>
       <c r="CY112" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ112" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA112" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB112" t="n">
         <v>0.8902469</v>
       </c>
-      <c r="CZ112" t="n">
+      <c r="DC112" t="n">
         <v>0.002</v>
       </c>
-      <c r="DA112" t="n">
+      <c r="DD112" t="n">
         <v>-6</v>
       </c>
-      <c r="DB112" t="n">
+      <c r="DE112" t="n">
         <v>35</v>
       </c>
     </row>
@@ -31082,32 +32478,43 @@
       <c r="CR113" t="n">
         <v>5.878606421380188</v>
       </c>
-      <c r="CS113" t="n">
+      <c r="CS113" t="inlineStr">
+        <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="CT113" t="n">
+        <v>1941</v>
+      </c>
+      <c r="CU113" t="n">
+        <v>16157322</v>
+      </c>
+      <c r="CV113" t="n">
         <v>105.1</v>
       </c>
-      <c r="CT113" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU113" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV113" t="n">
-        <v>0</v>
-      </c>
       <c r="CW113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX113" t="n">
         <v>0</v>
       </c>
       <c r="CY113" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ113" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA113" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB113" t="n">
         <v>0.3569488</v>
       </c>
-      <c r="CZ113" t="inlineStr"/>
-      <c r="DA113" t="n">
+      <c r="DC113" t="inlineStr"/>
+      <c r="DD113" t="n">
         <v>15</v>
       </c>
-      <c r="DB113" t="n">
+      <c r="DE113" t="n">
         <v>100</v>
       </c>
     </row>
@@ -31362,20 +32769,31 @@
       <c r="CR114" t="n">
         <v>6.575068285675083</v>
       </c>
-      <c r="CS114" t="n">
+      <c r="CS114" t="inlineStr">
+        <is>
+          <t>East Timor</t>
+        </is>
+      </c>
+      <c r="CT114" t="n">
+        <v>1975</v>
+      </c>
+      <c r="CU114" t="n">
+        <v>598170</v>
+      </c>
+      <c r="CV114" t="n">
         <v>185</v>
       </c>
-      <c r="CT114" t="inlineStr"/>
-      <c r="CU114" t="inlineStr"/>
-      <c r="CV114" t="inlineStr"/>
       <c r="CW114" t="inlineStr"/>
       <c r="CX114" t="inlineStr"/>
       <c r="CY114" t="inlineStr"/>
       <c r="CZ114" t="inlineStr"/>
-      <c r="DA114" t="n">
+      <c r="DA114" t="inlineStr"/>
+      <c r="DB114" t="inlineStr"/>
+      <c r="DC114" t="inlineStr"/>
+      <c r="DD114" t="n">
         <v>-8.550000000000001</v>
       </c>
-      <c r="DB114" t="n">
+      <c r="DE114" t="n">
         <v>125.5167</v>
       </c>
     </row>
@@ -31620,8 +33038,12 @@
       <c r="CH115" t="n">
         <v>1.163074428391251</v>
       </c>
-      <c r="CI115" t="inlineStr"/>
-      <c r="CJ115" t="inlineStr"/>
+      <c r="CI115" t="n">
+        <v>1960</v>
+      </c>
+      <c r="CJ115" t="n">
+        <v>4.562630546070897</v>
+      </c>
       <c r="CK115" t="n">
         <v>1975</v>
       </c>
@@ -31646,34 +33068,45 @@
       <c r="CR115" t="n">
         <v>5.267924879258417</v>
       </c>
-      <c r="CS115" t="n">
+      <c r="CS115" t="inlineStr">
+        <is>
+          <t>Togo</t>
+        </is>
+      </c>
+      <c r="CT115" t="n">
+        <v>1960</v>
+      </c>
+      <c r="CU115" t="n">
+        <v>1673116</v>
+      </c>
+      <c r="CV115" t="n">
         <v>28</v>
       </c>
-      <c r="CT115" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU115" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV115" t="n">
-        <v>0</v>
-      </c>
       <c r="CW115" t="n">
         <v>0</v>
       </c>
       <c r="CX115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY115" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ115" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA115" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB115" t="n">
         <v>0.7284868</v>
       </c>
-      <c r="CZ115" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA115" t="n">
+      <c r="DC115" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD115" t="n">
         <v>8</v>
       </c>
-      <c r="DB115" t="n">
+      <c r="DE115" t="n">
         <v>1.1667</v>
       </c>
     </row>
@@ -31860,20 +33293,22 @@
       <c r="CP116" t="inlineStr"/>
       <c r="CQ116" t="inlineStr"/>
       <c r="CR116" t="inlineStr"/>
-      <c r="CS116" t="n">
+      <c r="CS116" t="inlineStr">
+        <is>
+          <t>Tonga</t>
+        </is>
+      </c>
+      <c r="CT116" t="n">
+        <v>1970</v>
+      </c>
+      <c r="CU116" t="n">
+        <v>84415</v>
+      </c>
+      <c r="CV116" t="n">
         <v>77.3</v>
       </c>
-      <c r="CT116" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU116" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV116" t="n">
-        <v>0</v>
-      </c>
       <c r="CW116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX116" t="n">
         <v>0</v>
@@ -31881,11 +33316,20 @@
       <c r="CY116" t="n">
         <v>0</v>
       </c>
-      <c r="CZ116" t="inlineStr"/>
+      <c r="CZ116" t="n">
+        <v>0</v>
+      </c>
       <c r="DA116" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB116" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC116" t="inlineStr"/>
+      <c r="DD116" t="n">
         <v>-20</v>
       </c>
-      <c r="DB116" t="n">
+      <c r="DE116" t="n">
         <v>-175</v>
       </c>
     </row>
@@ -32128,8 +33572,12 @@
       <c r="CH117" t="n">
         <v>1.491252668314015</v>
       </c>
-      <c r="CI117" t="inlineStr"/>
-      <c r="CJ117" t="inlineStr"/>
+      <c r="CI117" t="n">
+        <v>1965</v>
+      </c>
+      <c r="CJ117" t="n">
+        <v>5.95466394772717</v>
+      </c>
       <c r="CK117" t="n">
         <v>1975</v>
       </c>
@@ -32154,34 +33602,45 @@
       <c r="CR117" t="n">
         <v>7.319305094468336</v>
       </c>
-      <c r="CS117" t="n">
+      <c r="CS117" t="inlineStr">
+        <is>
+          <t>Trinidad and Tobago</t>
+        </is>
+      </c>
+      <c r="CT117" t="n">
+        <v>1962</v>
+      </c>
+      <c r="CU117" t="n">
+        <v>880204</v>
+      </c>
+      <c r="CV117" t="n">
         <v>60.3</v>
       </c>
-      <c r="CT117" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU117" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV117" t="n">
-        <v>0</v>
-      </c>
       <c r="CW117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX117" t="n">
         <v>0</v>
       </c>
       <c r="CY117" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ117" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA117" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB117" t="n">
         <v>0.2312698</v>
       </c>
-      <c r="CZ117" t="n">
+      <c r="DC117" t="n">
         <v>0.055</v>
       </c>
-      <c r="DA117" t="n">
+      <c r="DD117" t="n">
         <v>11</v>
       </c>
-      <c r="DB117" t="n">
+      <c r="DE117" t="n">
         <v>-61</v>
       </c>
     </row>
@@ -32418,8 +33877,12 @@
       <c r="CH118" t="n">
         <v>0.7745503995529366</v>
       </c>
-      <c r="CI118" t="inlineStr"/>
-      <c r="CJ118" t="inlineStr"/>
+      <c r="CI118" t="n">
+        <v>1960</v>
+      </c>
+      <c r="CJ118" t="n">
+        <v>4.655415275626956</v>
+      </c>
       <c r="CK118" t="n">
         <v>1970</v>
       </c>
@@ -32444,34 +33907,45 @@
       <c r="CR118" t="n">
         <v>6.508401726283657</v>
       </c>
-      <c r="CS118" t="n">
+      <c r="CS118" t="inlineStr">
+        <is>
+          <t>Tunisia</t>
+        </is>
+      </c>
+      <c r="CT118" t="n">
+        <v>1956</v>
+      </c>
+      <c r="CU118" t="n">
+        <v>4082608</v>
+      </c>
+      <c r="CV118" t="n">
         <v>72.59999999999999</v>
       </c>
-      <c r="CT118" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU118" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV118" t="n">
-        <v>0</v>
-      </c>
       <c r="CW118" t="n">
         <v>0</v>
       </c>
       <c r="CX118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY118" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ118" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA118" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB118" t="n">
         <v>0.0702522</v>
       </c>
-      <c r="CZ118" t="n">
+      <c r="DC118" t="n">
         <v>0.066</v>
       </c>
-      <c r="DA118" t="n">
+      <c r="DD118" t="n">
         <v>34</v>
       </c>
-      <c r="DB118" t="n">
+      <c r="DE118" t="n">
         <v>9</v>
       </c>
     </row>
@@ -32658,20 +34132,31 @@
       <c r="CP119" t="inlineStr"/>
       <c r="CQ119" t="inlineStr"/>
       <c r="CR119" t="inlineStr"/>
-      <c r="CS119" t="n">
+      <c r="CS119" t="inlineStr">
+        <is>
+          <t>Tuvalu</t>
+        </is>
+      </c>
+      <c r="CT119" t="n">
+        <v>1978</v>
+      </c>
+      <c r="CU119" t="n">
+        <v>6980</v>
+      </c>
+      <c r="CV119" t="n">
         <v>2.5</v>
       </c>
-      <c r="CT119" t="inlineStr"/>
-      <c r="CU119" t="inlineStr"/>
-      <c r="CV119" t="inlineStr"/>
       <c r="CW119" t="inlineStr"/>
       <c r="CX119" t="inlineStr"/>
       <c r="CY119" t="inlineStr"/>
       <c r="CZ119" t="inlineStr"/>
-      <c r="DA119" t="n">
+      <c r="DA119" t="inlineStr"/>
+      <c r="DB119" t="inlineStr"/>
+      <c r="DC119" t="inlineStr"/>
+      <c r="DD119" t="n">
         <v>-8</v>
       </c>
-      <c r="DB119" t="n">
+      <c r="DE119" t="n">
         <v>178</v>
       </c>
     </row>
@@ -32908,8 +34393,12 @@
       <c r="CH120" t="n">
         <v>1.810286079899909</v>
       </c>
-      <c r="CI120" t="inlineStr"/>
-      <c r="CJ120" t="inlineStr"/>
+      <c r="CI120" t="n">
+        <v>1965</v>
+      </c>
+      <c r="CJ120" t="n">
+        <v>4.448758803144325</v>
+      </c>
       <c r="CK120" t="n">
         <v>1975</v>
       </c>
@@ -32934,34 +34423,45 @@
       <c r="CR120" t="n">
         <v>6.832503752072481</v>
       </c>
-      <c r="CS120" t="n">
+      <c r="CS120" t="inlineStr">
+        <is>
+          <t>Uganda</t>
+        </is>
+      </c>
+      <c r="CT120" t="n">
+        <v>1962</v>
+      </c>
+      <c r="CU120" t="n">
+        <v>8092231</v>
+      </c>
+      <c r="CV120" t="n">
         <v>91.3</v>
       </c>
-      <c r="CT120" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU120" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV120" t="n">
-        <v>0</v>
-      </c>
       <c r="CW120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX120" t="n">
         <v>0</v>
       </c>
       <c r="CY120" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ120" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA120" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB120" t="n">
         <v>0.8357907</v>
       </c>
-      <c r="CZ120" t="n">
+      <c r="DC120" t="n">
         <v>0.001</v>
       </c>
-      <c r="DA120" t="n">
-        <v>1</v>
-      </c>
-      <c r="DB120" t="n">
+      <c r="DD120" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE120" t="n">
         <v>32</v>
       </c>
     </row>
@@ -33198,8 +34698,12 @@
       <c r="CH121" t="n">
         <v>1.580453922405936</v>
       </c>
-      <c r="CI121" t="inlineStr"/>
-      <c r="CJ121" t="inlineStr"/>
+      <c r="CI121" t="n">
+        <v>1975</v>
+      </c>
+      <c r="CJ121" t="n">
+        <v>6.300634374560825</v>
+      </c>
       <c r="CK121" t="n">
         <v>1985</v>
       </c>
@@ -33224,30 +34728,41 @@
       <c r="CR121" t="n">
         <v>7.310054347826089</v>
       </c>
-      <c r="CS121" t="n">
+      <c r="CS121" t="inlineStr">
+        <is>
+          <t>United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="CT121" t="n">
+        <v>1971</v>
+      </c>
+      <c r="CU121" t="n">
+        <v>335042</v>
+      </c>
+      <c r="CV121" t="n">
         <v>76.90000000000001</v>
       </c>
-      <c r="CT121" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU121" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV121" t="n">
-        <v>0</v>
-      </c>
       <c r="CW121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX121" t="n">
         <v>0</v>
       </c>
-      <c r="CY121" t="inlineStr"/>
-      <c r="CZ121" t="inlineStr"/>
+      <c r="CY121" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ121" t="n">
+        <v>0</v>
+      </c>
       <c r="DA121" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB121" t="inlineStr"/>
+      <c r="DC121" t="inlineStr"/>
+      <c r="DD121" t="n">
         <v>24</v>
       </c>
-      <c r="DB121" t="n">
+      <c r="DE121" t="n">
         <v>54</v>
       </c>
     </row>
@@ -33474,34 +34989,37 @@
       <c r="CP122" t="inlineStr"/>
       <c r="CQ122" t="inlineStr"/>
       <c r="CR122" t="inlineStr"/>
-      <c r="CS122" t="n">
+      <c r="CS122" t="inlineStr"/>
+      <c r="CT122" t="inlineStr"/>
+      <c r="CU122" t="inlineStr"/>
+      <c r="CV122" t="n">
         <v>107.3</v>
       </c>
-      <c r="CT122" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU122" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV122" t="n">
-        <v>0</v>
-      </c>
       <c r="CW122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX122" t="n">
         <v>0</v>
       </c>
       <c r="CY122" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ122" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA122" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB122" t="n">
         <v>0.2090314</v>
       </c>
-      <c r="CZ122" t="n">
+      <c r="DC122" t="n">
         <v>0.8070000000000001</v>
       </c>
-      <c r="DA122" t="n">
+      <c r="DD122" t="n">
         <v>38</v>
       </c>
-      <c r="DB122" t="n">
+      <c r="DE122" t="n">
         <v>-97</v>
       </c>
     </row>
@@ -33734,32 +35252,43 @@
       <c r="CP123" t="inlineStr"/>
       <c r="CQ123" t="inlineStr"/>
       <c r="CR123" t="inlineStr"/>
-      <c r="CS123" t="n">
+      <c r="CS123" t="inlineStr">
+        <is>
+          <t>Uruguay</t>
+        </is>
+      </c>
+      <c r="CT123" t="n">
+        <v>1823</v>
+      </c>
+      <c r="CU123" t="n">
+        <v>60083</v>
+      </c>
+      <c r="CV123" t="n">
         <v>43.5</v>
       </c>
-      <c r="CT123" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU123" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV123" t="n">
-        <v>0</v>
-      </c>
       <c r="CW123" t="n">
         <v>0</v>
       </c>
       <c r="CX123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY123" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ123" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA123" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB123" t="n">
         <v>0.0666667</v>
       </c>
-      <c r="CZ123" t="inlineStr"/>
-      <c r="DA123" t="n">
+      <c r="DC123" t="inlineStr"/>
+      <c r="DD123" t="n">
         <v>-33</v>
       </c>
-      <c r="DB123" t="n">
+      <c r="DE123" t="n">
         <v>-56</v>
       </c>
     </row>
@@ -33954,32 +35483,43 @@
       <c r="CP124" t="inlineStr"/>
       <c r="CQ124" t="inlineStr"/>
       <c r="CR124" t="inlineStr"/>
-      <c r="CS124" t="n">
+      <c r="CS124" t="inlineStr">
+        <is>
+          <t>Vanuatu</t>
+        </is>
+      </c>
+      <c r="CT124" t="n">
+        <v>1980</v>
+      </c>
+      <c r="CU124" t="n">
+        <v>115683</v>
+      </c>
+      <c r="CV124" t="n">
         <v>172.9</v>
       </c>
-      <c r="CT124" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU124" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV124" t="n">
-        <v>0</v>
-      </c>
       <c r="CW124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX124" t="n">
         <v>0</v>
       </c>
       <c r="CY124" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ124" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA124" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB124" t="n">
         <v>0.5441176</v>
       </c>
-      <c r="CZ124" t="inlineStr"/>
-      <c r="DA124" t="n">
+      <c r="DC124" t="inlineStr"/>
+      <c r="DD124" t="n">
         <v>-16</v>
       </c>
-      <c r="DB124" t="n">
+      <c r="DE124" t="n">
         <v>167</v>
       </c>
     </row>
@@ -34206,34 +35746,45 @@
       <c r="CP125" t="inlineStr"/>
       <c r="CQ125" t="inlineStr"/>
       <c r="CR125" t="inlineStr"/>
-      <c r="CS125" t="n">
+      <c r="CS125" t="inlineStr">
+        <is>
+          <t>Venezuela</t>
+        </is>
+      </c>
+      <c r="CT125" t="n">
+        <v>1820</v>
+      </c>
+      <c r="CU125" t="n">
+        <v>732079</v>
+      </c>
+      <c r="CV125" t="n">
         <v>63.4</v>
       </c>
-      <c r="CT125" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU125" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV125" t="n">
-        <v>0</v>
-      </c>
       <c r="CW125" t="n">
         <v>0</v>
       </c>
       <c r="CX125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY125" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ125" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA125" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB125" t="n">
         <v>0.0525</v>
       </c>
-      <c r="CZ125" t="n">
+      <c r="DC125" t="n">
         <v>0.081</v>
       </c>
-      <c r="DA125" t="n">
+      <c r="DD125" t="n">
         <v>8</v>
       </c>
-      <c r="DB125" t="n">
+      <c r="DE125" t="n">
         <v>-66</v>
       </c>
     </row>
@@ -34480,18 +36031,20 @@
       <c r="CP126" t="inlineStr"/>
       <c r="CQ126" t="inlineStr"/>
       <c r="CR126" t="inlineStr"/>
-      <c r="CS126" t="n">
+      <c r="CS126" t="inlineStr">
+        <is>
+          <t>Vietnam</t>
+        </is>
+      </c>
+      <c r="CT126" t="n">
+        <v>1951</v>
+      </c>
+      <c r="CU126" t="n">
+        <v>25600272</v>
+      </c>
+      <c r="CV126" t="n">
         <v>205.4</v>
       </c>
-      <c r="CT126" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU126" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV126" t="n">
-        <v>1</v>
-      </c>
       <c r="CW126" t="n">
         <v>0</v>
       </c>
@@ -34499,13 +36052,22 @@
         <v>0</v>
       </c>
       <c r="CY126" t="n">
+        <v>1</v>
+      </c>
+      <c r="CZ126" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA126" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB126" t="n">
         <v>0.1176471</v>
       </c>
-      <c r="CZ126" t="inlineStr"/>
-      <c r="DA126" t="n">
+      <c r="DC126" t="inlineStr"/>
+      <c r="DD126" t="n">
         <v>16</v>
       </c>
-      <c r="DB126" t="n">
+      <c r="DE126" t="n">
         <v>106</v>
       </c>
     </row>
@@ -34756,32 +36318,43 @@
       <c r="CR127" t="n">
         <v>6.297041010870566</v>
       </c>
-      <c r="CS127" t="n">
+      <c r="CS127" t="inlineStr">
+        <is>
+          <t>Yemen</t>
+        </is>
+      </c>
+      <c r="CT127" t="n">
+        <v>1967</v>
+      </c>
+      <c r="CU127" t="n">
+        <v>6516449</v>
+      </c>
+      <c r="CV127" t="n">
         <v>232.3</v>
       </c>
-      <c r="CT127" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU127" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV127" t="n">
-        <v>0</v>
-      </c>
       <c r="CW127" t="n">
         <v>0</v>
       </c>
       <c r="CX127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY127" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ127" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA127" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB127" t="n">
         <v>0.0122</v>
       </c>
-      <c r="CZ127" t="inlineStr"/>
-      <c r="DA127" t="n">
+      <c r="DC127" t="inlineStr"/>
+      <c r="DD127" t="n">
         <v>15</v>
       </c>
-      <c r="DB127" t="n">
+      <c r="DE127" t="n">
         <v>48</v>
       </c>
     </row>
@@ -35018,8 +36591,12 @@
       <c r="CH128" t="n">
         <v>1.499929532616398</v>
       </c>
-      <c r="CI128" t="inlineStr"/>
-      <c r="CJ128" t="inlineStr"/>
+      <c r="CI128" t="n">
+        <v>1965</v>
+      </c>
+      <c r="CJ128" t="n">
+        <v>4.802119188076613</v>
+      </c>
       <c r="CK128" t="n">
         <v>1975</v>
       </c>
@@ -35044,34 +36621,45 @@
       <c r="CR128" t="n">
         <v>6.802512825763722</v>
       </c>
-      <c r="CS128" t="n">
+      <c r="CS128" t="inlineStr">
+        <is>
+          <t>Zambia</t>
+        </is>
+      </c>
+      <c r="CT128" t="n">
+        <v>1964</v>
+      </c>
+      <c r="CU128" t="n">
+        <v>3577016</v>
+      </c>
+      <c r="CV128" t="n">
         <v>53.3</v>
       </c>
-      <c r="CT128" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU128" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV128" t="n">
-        <v>0</v>
-      </c>
       <c r="CW128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX128" t="n">
         <v>0</v>
       </c>
       <c r="CY128" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ128" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA128" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB128" t="n">
         <v>0.8293977</v>
       </c>
-      <c r="CZ128" t="n">
+      <c r="DC128" t="n">
         <v>0.027</v>
       </c>
-      <c r="DA128" t="n">
+      <c r="DD128" t="n">
         <v>-15</v>
       </c>
-      <c r="DB128" t="n">
+      <c r="DE128" t="n">
         <v>30</v>
       </c>
     </row>
@@ -35308,8 +36896,12 @@
       <c r="CH129" t="n">
         <v>2.064438502745443</v>
       </c>
-      <c r="CI129" t="inlineStr"/>
-      <c r="CJ129" t="inlineStr"/>
+      <c r="CI129" t="n">
+        <v>1975</v>
+      </c>
+      <c r="CJ129" t="n">
+        <v>4.818825482027971</v>
+      </c>
       <c r="CK129" t="n">
         <v>1985</v>
       </c>
@@ -35334,34 +36926,45 @@
       <c r="CR129" t="n">
         <v>6.449594906009498</v>
       </c>
-      <c r="CS129" t="n">
+      <c r="CS129" t="inlineStr">
+        <is>
+          <t>Zimbabwe</t>
+        </is>
+      </c>
+      <c r="CT129" t="n">
+        <v>1975</v>
+      </c>
+      <c r="CU129" t="n">
+        <v>6098655</v>
+      </c>
+      <c r="CV129" t="n">
         <v>119.4</v>
       </c>
-      <c r="CT129" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU129" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV129" t="n">
-        <v>0</v>
-      </c>
       <c r="CW129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX129" t="n">
         <v>0</v>
       </c>
       <c r="CY129" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ129" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA129" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB129" t="n">
         <v>0.5986364</v>
       </c>
-      <c r="CZ129" t="n">
+      <c r="DC129" t="n">
         <v>0.042</v>
       </c>
-      <c r="DA129" t="n">
+      <c r="DD129" t="n">
         <v>-20</v>
       </c>
-      <c r="DB129" t="n">
+      <c r="DE129" t="n">
         <v>30</v>
       </c>
     </row>
